--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>830315.2104233806</v>
+        <v>860189.3251183021</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1115313.001862017</v>
+        <v>1021463.223122144</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18329676.20617603</v>
+        <v>18235608.67204788</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6885269.060793704</v>
+        <v>6917832.344635936</v>
       </c>
     </row>
     <row r="11">
@@ -1382,46 +1384,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="I11" t="n">
+      <c r="R11" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="J11" t="n">
+      <c r="S11" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1461,49 +1463,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="I12" t="n">
+      <c r="S12" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="J12" t="n">
+      <c r="T12" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1622,46 +1624,46 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="I14" t="n">
+      <c r="S14" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="J14" t="n">
+      <c r="T14" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>25.75359370674563</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1698,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>25.75359370674563</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="H15" t="n">
         <v>29.23886660620531</v>
@@ -1707,7 +1709,7 @@
         <v>29.23886660620531</v>
       </c>
       <c r="J15" t="n">
-        <v>29.23886660620531</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="I17" t="n">
-        <v>39.95092127527401</v>
+        <v>45.55924250423406</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1938,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>45.35754004913036</v>
+        <v>23.03023792622546</v>
       </c>
       <c r="S18" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>17.42191669726542</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2087,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>75.70608231735568</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H20" t="n">
-        <v>11.90074236257993</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="I20" t="n">
-        <v>75.70608231735568</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.27902778684214</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.2082294730605</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.70608231735568</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>75.70608231735568</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="E21" t="n">
-        <v>75.70608231735568</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>66.68191730512689</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2324,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>66.59218285739217</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="U23" t="n">
         <v>77.20917189415033</v>
       </c>
       <c r="V23" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>66.59218285739217</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2439,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.47683402635902</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>77.20917189415033</v>
@@ -2451,7 +2453,7 @@
         <v>77.20917189415033</v>
       </c>
       <c r="U24" t="n">
-        <v>77.20917189415033</v>
+        <v>68.00583860436758</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2552,31 +2554,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>4.313155070550043</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>62.27902778684214</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>66.59218285739217</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,61 +2633,61 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="C27" t="n">
+      <c r="G27" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>68.00583860436758</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>68.00583860436758</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2795,25 +2797,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="G29" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>13.31409749163988</v>
+        <v>66.59218285739217</v>
       </c>
       <c r="I29" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>62.27902778684214</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.2082294730605</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2880,14 +2882,14 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="G30" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
@@ -2913,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>68.00583860436758</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,10 +2933,10 @@
         <v>77.20917189415033</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>45.47683402635902</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.59218285739206</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>66.59218285739217</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,17 +3107,17 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="J33" t="n">
         <v>58.29370945070387</v>
@@ -3150,28 +3152,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
         <v>9.71212915366371</v>
       </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3266,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>47.97030528794502</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>42.25224489762195</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>47.97030528794502</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>47.97030528794502</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3396,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>42.25224489762197</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>47.97030528794502</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>47.97030528794502</v>
+        <v>59.75657007276242</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>47.97030528794502</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>42.25224489762195</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>47.97030528794502</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>47.97030528794502</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H39" t="n">
-        <v>47.97030528794502</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3624,16 +3626,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.22756549475385</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>42.25224489762197</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>31.85163184501997</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>28.05491732909358</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>31.85163184501997</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.85163184501997</v>
+        <v>39.95092127527401</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.525912751085007</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,16 +3863,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.85163184501997</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="S42" t="n">
-        <v>31.85163184501997</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="T42" t="n">
-        <v>31.85163184501997</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
     </row>
     <row r="43">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>25.75359370674563</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.50308957679465</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F44" t="n">
-        <v>1.50308957679465</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="G44" t="n">
-        <v>1.50308957679465</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="H44" t="n">
-        <v>1.323921299240728</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4098,28 +4100,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.323921299240728</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R45" t="n">
-        <v>1.50308957679465</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1.50308957679465</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>3.224589128737049</v>
       </c>
       <c r="V45" t="n">
-        <v>1.50308957679465</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G11" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H11" t="n">
-        <v>61.40752671476977</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I11" t="n">
-        <v>31.8733180216331</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J11" t="n">
         <v>2.339109328496424</v>
@@ -5045,13 +5047,13 @@
         <v>2.339109328496424</v>
       </c>
       <c r="L11" t="n">
-        <v>16.1615461980536</v>
+        <v>31.28558726863968</v>
       </c>
       <c r="M11" t="n">
-        <v>45.10802413819685</v>
+        <v>60.23206520878293</v>
       </c>
       <c r="N11" t="n">
-        <v>74.05450207834011</v>
+        <v>89.17854314892618</v>
       </c>
       <c r="O11" t="n">
         <v>103.0009800184834</v>
@@ -5060,31 +5062,31 @@
         <v>116.9554664248212</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.9554664248212</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="R11" t="n">
-        <v>116.9554664248212</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="S11" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="T11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="U11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y11" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C12" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D12" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E12" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F12" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G12" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H12" t="n">
-        <v>61.40752671476977</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I12" t="n">
-        <v>31.8733180216331</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J12" t="n">
         <v>2.339109328496424</v>
       </c>
       <c r="K12" t="n">
-        <v>2.339109328496424</v>
+        <v>15.89562499514241</v>
       </c>
       <c r="L12" t="n">
         <v>30.11603260439146</v>
@@ -5142,28 +5144,28 @@
         <v>116.9554664248212</v>
       </c>
       <c r="R12" t="n">
-        <v>116.9554664248212</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="S12" t="n">
-        <v>116.9554664248212</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="T12" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="U12" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V12" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W12" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X12" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y12" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C14" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D14" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E14" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F14" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G14" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H14" t="n">
-        <v>61.40752671476977</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I14" t="n">
-        <v>31.8733180216331</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J14" t="n">
         <v>2.339109328496424</v>
@@ -5297,31 +5299,31 @@
         <v>116.9554664248212</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.94173540790645</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="R14" t="n">
-        <v>90.94173540790645</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="S14" t="n">
-        <v>90.94173540790645</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="T14" t="n">
-        <v>90.94173540790645</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="U14" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V14" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W14" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X14" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y14" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="15">
@@ -5346,13 +5348,13 @@
         <v>116.9554664248212</v>
       </c>
       <c r="G15" t="n">
-        <v>90.94173540790645</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="H15" t="n">
-        <v>61.40752671476977</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="I15" t="n">
-        <v>31.8733180216331</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="J15" t="n">
         <v>2.339109328496424</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.79876615787424</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="C17" t="n">
-        <v>89.79876615787424</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="D17" t="n">
-        <v>89.79876615787424</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="E17" t="n">
-        <v>43.98306913855064</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="F17" t="n">
-        <v>43.98306913855064</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="G17" t="n">
-        <v>43.98306913855064</v>
+        <v>102.4047414520991</v>
       </c>
       <c r="H17" t="n">
-        <v>43.98306913855064</v>
+        <v>50.15742438470159</v>
       </c>
       <c r="I17" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="J17" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="K17" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="L17" t="n">
-        <v>48.53256785256949</v>
+        <v>39.32210280728739</v>
       </c>
       <c r="M17" t="n">
-        <v>93.43653250120855</v>
+        <v>90.52969826504366</v>
       </c>
       <c r="N17" t="n">
-        <v>122.5717091415445</v>
+        <v>141.7372937227999</v>
       </c>
       <c r="O17" t="n">
-        <v>167.4756737901836</v>
+        <v>192.9448891805562</v>
       </c>
       <c r="P17" t="n">
-        <v>181.4301601965215</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="Q17" t="n">
-        <v>181.4301601965215</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="R17" t="n">
-        <v>181.4301601965215</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="S17" t="n">
-        <v>135.6144631771978</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6144631771978</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="U17" t="n">
-        <v>89.79876615787424</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="V17" t="n">
-        <v>89.79876615787424</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="W17" t="n">
-        <v>89.79876615787424</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="X17" t="n">
-        <v>89.79876615787424</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.79876615787424</v>
+        <v>206.8993755868941</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.628603203930429</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="C18" t="n">
-        <v>3.628603203930429</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="D18" t="n">
-        <v>3.628603203930429</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="E18" t="n">
-        <v>3.628603203930429</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="F18" t="n">
-        <v>3.628603203930429</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="G18" t="n">
-        <v>3.628603203930429</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="H18" t="n">
-        <v>3.628603203930429</v>
+        <v>108.6326216465329</v>
       </c>
       <c r="I18" t="n">
-        <v>3.628603203930429</v>
+        <v>56.38530457913537</v>
       </c>
       <c r="J18" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="K18" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="L18" t="n">
-        <v>48.53256785256949</v>
+        <v>55.34558296949416</v>
       </c>
       <c r="M18" t="n">
-        <v>93.43653250120855</v>
+        <v>104.4841846713815</v>
       </c>
       <c r="N18" t="n">
-        <v>138.3404971498476</v>
+        <v>155.6917801291378</v>
       </c>
       <c r="O18" t="n">
-        <v>181.4301601965215</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="P18" t="n">
-        <v>181.4301601965215</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6735899157047</v>
+        <v>184.1428053060773</v>
       </c>
       <c r="R18" t="n">
-        <v>112.8578928963811</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="S18" t="n">
-        <v>67.04219587705748</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="T18" t="n">
-        <v>21.22649885773388</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="U18" t="n">
-        <v>3.628603203930429</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="V18" t="n">
-        <v>3.628603203930429</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="W18" t="n">
-        <v>3.628603203930429</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="X18" t="n">
-        <v>3.628603203930429</v>
+        <v>160.8799387139304</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.628603203930429</v>
+        <v>160.8799387139304</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="C19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="D19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="E19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="F19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="G19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="H19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="I19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="J19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="K19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="L19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="M19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="N19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="O19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="P19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="R19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="S19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="T19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="U19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="V19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="W19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="X19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.628603203930429</v>
+        <v>4.137987511737881</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="C20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="D20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="E20" t="n">
-        <v>157.4563375619316</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="F20" t="n">
-        <v>157.4563375619316</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="G20" t="n">
-        <v>157.4563375619316</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="H20" t="n">
-        <v>145.4353856805378</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I20" t="n">
-        <v>68.96459546098657</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J20" t="n">
-        <v>6.056486585388455</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K20" t="n">
-        <v>6.056486585388455</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L20" t="n">
-        <v>64.02277838053847</v>
+        <v>55.92433645350013</v>
       </c>
       <c r="M20" t="n">
-        <v>138.9717998747206</v>
+        <v>123.0894186197522</v>
       </c>
       <c r="N20" t="n">
-        <v>213.9208213689027</v>
+        <v>190.2545007860043</v>
       </c>
       <c r="O20" t="n">
-        <v>288.8698428630848</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P20" t="n">
-        <v>302.8243292694227</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="V20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="W20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="X20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.9271277814828</v>
+        <v>271.3740693585943</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>226.3535390498715</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="C21" t="n">
-        <v>226.3535390498715</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="D21" t="n">
-        <v>149.8827488303203</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="E21" t="n">
-        <v>73.41195861076915</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="F21" t="n">
-        <v>6.056486585388455</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="G21" t="n">
-        <v>6.056486585388455</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="H21" t="n">
-        <v>6.056486585388455</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I21" t="n">
-        <v>6.056486585388455</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J21" t="n">
-        <v>6.056486585388455</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K21" t="n">
-        <v>34.32218053364127</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L21" t="n">
-        <v>85.76120411480639</v>
+        <v>72.59256355342397</v>
       </c>
       <c r="M21" t="n">
-        <v>160.7102256089885</v>
+        <v>137.0439050260901</v>
       </c>
       <c r="N21" t="n">
-        <v>227.8753077752406</v>
+        <v>204.2089871923422</v>
       </c>
       <c r="O21" t="n">
-        <v>302.8243292694227</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P21" t="n">
-        <v>302.8243292694227</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q21" t="n">
-        <v>302.8243292694227</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R21" t="n">
-        <v>302.8243292694227</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S21" t="n">
-        <v>302.8243292694227</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="T21" t="n">
-        <v>302.8243292694227</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="U21" t="n">
-        <v>302.8243292694227</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="V21" t="n">
-        <v>302.8243292694227</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="W21" t="n">
-        <v>302.8243292694227</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="X21" t="n">
-        <v>302.8243292694227</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="Y21" t="n">
-        <v>302.8243292694227</v>
+        <v>134.3164585714254</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="C22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="D22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="E22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="F22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="G22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="I22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="J22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="K22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="L22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="M22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="N22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="O22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="V22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="W22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="X22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.056486585388455</v>
+        <v>271.3740693585943</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="C23" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="D23" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E23" t="n">
         <v>6.176733751532026</v>
@@ -6014,25 +6016,25 @@
         <v>307.4087524786464</v>
       </c>
       <c r="S23" t="n">
-        <v>307.4087524786464</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="T23" t="n">
-        <v>307.4087524786464</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="U23" t="n">
-        <v>229.4196899593026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="V23" t="n">
-        <v>151.4306274399588</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="W23" t="n">
-        <v>73.44156492061504</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="X23" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
     </row>
     <row r="24">
@@ -6069,49 +6071,49 @@
         <v>6.176733751532026</v>
       </c>
       <c r="K24" t="n">
-        <v>34.44242769978484</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L24" t="n">
-        <v>88.79744505993159</v>
+        <v>82.61381392674085</v>
       </c>
       <c r="M24" t="n">
-        <v>165.2345252351404</v>
+        <v>136.2880472949972</v>
       </c>
       <c r="N24" t="n">
+        <v>203.4531294612493</v>
+      </c>
+      <c r="O24" t="n">
         <v>232.3996074013925</v>
-      </c>
-      <c r="O24" t="n">
-        <v>308.8366875766013</v>
       </c>
       <c r="P24" t="n">
         <v>308.8366875766013</v>
       </c>
       <c r="Q24" t="n">
-        <v>286.0801172957846</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="R24" t="n">
-        <v>240.1439213095634</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="S24" t="n">
-        <v>162.1548587902196</v>
+        <v>230.8476250572575</v>
       </c>
       <c r="T24" t="n">
+        <v>152.8585625379138</v>
+      </c>
+      <c r="U24" t="n">
         <v>84.1657962708758</v>
       </c>
-      <c r="U24" t="n">
-        <v>6.176733751532026</v>
-      </c>
       <c r="V24" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="W24" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="X24" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="C25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="D25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="E25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="F25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="G25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="H25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="I25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="J25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="K25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="L25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="M25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="N25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="O25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="P25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="R25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="S25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="T25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="U25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="V25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="W25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="X25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151.4306274399588</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="C26" t="n">
-        <v>151.4306274399588</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="D26" t="n">
-        <v>151.4306274399588</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E26" t="n">
-        <v>73.44156492061504</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="F26" t="n">
-        <v>73.44156492061504</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="G26" t="n">
-        <v>73.44156492061504</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="H26" t="n">
-        <v>73.44156492061504</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I26" t="n">
-        <v>69.08484262713014</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J26" t="n">
         <v>6.176733751532026</v>
@@ -6245,31 +6247,31 @@
         <v>307.4087524786464</v>
       </c>
       <c r="Q26" t="n">
-        <v>307.4087524786464</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="R26" t="n">
-        <v>307.4087524786464</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="S26" t="n">
-        <v>307.4087524786464</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="T26" t="n">
-        <v>229.4196899593026</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="U26" t="n">
-        <v>229.4196899593026</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="V26" t="n">
-        <v>151.4306274399588</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="W26" t="n">
-        <v>151.4306274399588</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="X26" t="n">
-        <v>151.4306274399588</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="Y26" t="n">
-        <v>151.4306274399588</v>
+        <v>240.1439213095634</v>
       </c>
     </row>
     <row r="27">
@@ -6282,19 +6284,19 @@
         <v>162.1548587902196</v>
       </c>
       <c r="C27" t="n">
-        <v>84.1657962708758</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="D27" t="n">
-        <v>84.1657962708758</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="E27" t="n">
-        <v>84.1657962708758</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="F27" t="n">
         <v>84.1657962708758</v>
       </c>
       <c r="G27" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H27" t="n">
         <v>6.176733751532026</v>
@@ -6306,16 +6308,16 @@
         <v>6.176733751532026</v>
       </c>
       <c r="K27" t="n">
-        <v>34.44242769978484</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L27" t="n">
-        <v>91.38408264635811</v>
+        <v>82.61381392674085</v>
       </c>
       <c r="M27" t="n">
-        <v>136.2880472949972</v>
+        <v>127.5177785753799</v>
       </c>
       <c r="N27" t="n">
-        <v>203.4531294612493</v>
+        <v>194.682860741632</v>
       </c>
       <c r="O27" t="n">
         <v>232.3996074013925</v>
@@ -6330,25 +6332,25 @@
         <v>308.8366875766013</v>
       </c>
       <c r="S27" t="n">
-        <v>308.8366875766013</v>
+        <v>230.8476250572575</v>
       </c>
       <c r="T27" t="n">
-        <v>308.8366875766013</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="U27" t="n">
-        <v>308.8366875766013</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="V27" t="n">
-        <v>308.8366875766013</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="W27" t="n">
-        <v>308.8366875766013</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="X27" t="n">
-        <v>240.1439213095634</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="Y27" t="n">
-        <v>240.1439213095634</v>
+        <v>162.1548587902196</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="C28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="D28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="E28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="F28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="G28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="H28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="I28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="J28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="K28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="L28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="M28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="N28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="O28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="P28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="R28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="S28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="T28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="U28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="V28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="W28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="X28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>238.5115509907065</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="C29" t="n">
-        <v>238.5115509907065</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="D29" t="n">
-        <v>238.5115509907065</v>
+        <v>229.4196899593026</v>
       </c>
       <c r="E29" t="n">
-        <v>238.5115509907065</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="F29" t="n">
-        <v>238.5115509907065</v>
+        <v>73.44156492061504</v>
       </c>
       <c r="G29" t="n">
-        <v>160.5224884713627</v>
+        <v>73.44156492061504</v>
       </c>
       <c r="H29" t="n">
-        <v>147.0739051464739</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I29" t="n">
-        <v>69.08484262713014</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J29" t="n">
         <v>6.176733751532026</v>
@@ -6482,31 +6484,31 @@
         <v>307.4087524786464</v>
       </c>
       <c r="Q29" t="n">
-        <v>238.5115509907065</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="R29" t="n">
-        <v>238.5115509907065</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="S29" t="n">
-        <v>238.5115509907065</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="T29" t="n">
-        <v>238.5115509907065</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="U29" t="n">
-        <v>238.5115509907065</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="V29" t="n">
-        <v>238.5115509907065</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="W29" t="n">
-        <v>238.5115509907065</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="X29" t="n">
-        <v>238.5115509907065</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="Y29" t="n">
-        <v>238.5115509907065</v>
+        <v>307.4087524786464</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="C30" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="D30" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E30" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="F30" t="n">
         <v>84.1657962708758</v>
       </c>
       <c r="G30" t="n">
-        <v>6.176733751532026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="H30" t="n">
         <v>6.176733751532026</v>
@@ -6549,43 +6551,43 @@
         <v>82.61381392674085</v>
       </c>
       <c r="M30" t="n">
-        <v>136.2880472949972</v>
+        <v>159.0508941019497</v>
       </c>
       <c r="N30" t="n">
-        <v>203.4531294612493</v>
+        <v>232.3996074013925</v>
       </c>
       <c r="O30" t="n">
-        <v>232.3996074013925</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="P30" t="n">
         <v>308.8366875766013</v>
       </c>
       <c r="Q30" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="R30" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="S30" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="T30" t="n">
-        <v>240.1439213095634</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="U30" t="n">
-        <v>240.1439213095634</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="V30" t="n">
-        <v>162.1548587902196</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="W30" t="n">
         <v>162.1548587902196</v>
       </c>
       <c r="X30" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="Y30" t="n">
-        <v>162.1548587902196</v>
+        <v>84.1657962708758</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="C31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="D31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="E31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="F31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="G31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="H31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="I31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="J31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="K31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="L31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="M31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="N31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="O31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="P31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="R31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="S31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="T31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="U31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="V31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="W31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="X31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>162.1548587902196</v>
+      </c>
+      <c r="C32" t="n">
+        <v>162.1548587902196</v>
+      </c>
+      <c r="D32" t="n">
+        <v>162.1548587902196</v>
+      </c>
+      <c r="E32" t="n">
         <v>84.1657962708758</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
         <v>84.1657962708758</v>
-      </c>
-      <c r="D32" t="n">
-        <v>84.1657962708758</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6.176733751532026</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6.176733751532026</v>
       </c>
       <c r="G32" t="n">
         <v>6.176733751532026</v>
@@ -6713,22 +6715,22 @@
         <v>217.0171858970997</v>
       </c>
       <c r="O32" t="n">
-        <v>293.4542660723084</v>
+        <v>293.4542660723085</v>
       </c>
       <c r="P32" t="n">
-        <v>307.4087524786462</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.1439213095634</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="R32" t="n">
         <v>240.1439213095634</v>
       </c>
       <c r="S32" t="n">
-        <v>240.1439213095634</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="T32" t="n">
-        <v>240.1439213095634</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="U32" t="n">
         <v>162.1548587902196</v>
@@ -6743,7 +6745,7 @@
         <v>162.1548587902196</v>
       </c>
       <c r="Y32" t="n">
-        <v>84.1657962708758</v>
+        <v>162.1548587902196</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>65.05926855022281</v>
+        <v>221.0373935889104</v>
       </c>
       <c r="C33" t="n">
-        <v>65.05926855022281</v>
+        <v>221.0373935889104</v>
       </c>
       <c r="D33" t="n">
-        <v>65.05926855022281</v>
+        <v>221.0373935889104</v>
       </c>
       <c r="E33" t="n">
-        <v>65.05926855022281</v>
+        <v>143.0483310695666</v>
       </c>
       <c r="F33" t="n">
-        <v>65.05926855022281</v>
+        <v>143.0483310695666</v>
       </c>
       <c r="G33" t="n">
-        <v>65.05926855022281</v>
+        <v>143.0483310695666</v>
       </c>
       <c r="H33" t="n">
-        <v>65.05926855022281</v>
+        <v>143.0483310695666</v>
       </c>
       <c r="I33" t="n">
         <v>65.05926855022281</v>
@@ -6780,49 +6782,49 @@
         <v>6.176733751532026</v>
       </c>
       <c r="K33" t="n">
-        <v>6.176733751532026</v>
+        <v>34.44242769978484</v>
       </c>
       <c r="L33" t="n">
-        <v>82.61381392674085</v>
+        <v>110.8795078749937</v>
       </c>
       <c r="M33" t="n">
-        <v>127.5177785753799</v>
+        <v>187.3165880502025</v>
       </c>
       <c r="N33" t="n">
-        <v>194.682860741632</v>
+        <v>254.4816702164546</v>
       </c>
       <c r="O33" t="n">
-        <v>232.3996074013925</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="P33" t="n">
         <v>308.8366875766013</v>
       </c>
       <c r="Q33" t="n">
+        <v>308.8366875766013</v>
+      </c>
+      <c r="R33" t="n">
+        <v>308.8366875766013</v>
+      </c>
+      <c r="S33" t="n">
+        <v>308.8366875766013</v>
+      </c>
+      <c r="T33" t="n">
         <v>299.0264561082541</v>
       </c>
-      <c r="R33" t="n">
+      <c r="U33" t="n">
         <v>299.0264561082541</v>
       </c>
-      <c r="S33" t="n">
+      <c r="V33" t="n">
+        <v>299.0264561082541</v>
+      </c>
+      <c r="W33" t="n">
+        <v>299.0264561082541</v>
+      </c>
+      <c r="X33" t="n">
         <v>221.0373935889104</v>
       </c>
-      <c r="T33" t="n">
+      <c r="Y33" t="n">
         <v>221.0373935889104</v>
-      </c>
-      <c r="U33" t="n">
-        <v>143.0483310695666</v>
-      </c>
-      <c r="V33" t="n">
-        <v>143.0483310695666</v>
-      </c>
-      <c r="W33" t="n">
-        <v>143.0483310695666</v>
-      </c>
-      <c r="X33" t="n">
-        <v>143.0483310695666</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>143.0483310695666</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="C34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="D34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="E34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="F34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="G34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="H34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="I34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="J34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="K34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="L34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="M34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="N34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="O34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="P34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="R34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="S34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="T34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="U34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="V34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="W34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="X34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.176733751532026</v>
+        <v>308.8366875766013</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94.97151349936588</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="C35" t="n">
-        <v>46.51665967315878</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="D35" t="n">
-        <v>3.837624423035602</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E35" t="n">
-        <v>3.837624423035602</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F35" t="n">
-        <v>3.837624423035602</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G35" t="n">
-        <v>3.837624423035602</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="H35" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I35" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J35" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K35" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L35" t="n">
-        <v>35.45492804024551</v>
+        <v>63.39377318232184</v>
       </c>
       <c r="M35" t="n">
-        <v>82.94553027531109</v>
+        <v>123.0894186197523</v>
       </c>
       <c r="N35" t="n">
-        <v>130.4361325103767</v>
+        <v>190.2545007860044</v>
       </c>
       <c r="O35" t="n">
-        <v>177.9267347454422</v>
+        <v>257.4195829522565</v>
       </c>
       <c r="P35" t="n">
-        <v>191.8812211517801</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q35" t="n">
-        <v>191.8812211517801</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="R35" t="n">
-        <v>191.8812211517801</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="S35" t="n">
-        <v>191.8812211517801</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="T35" t="n">
-        <v>191.8812211517801</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="U35" t="n">
-        <v>191.8812211517801</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="V35" t="n">
-        <v>143.426367325573</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="W35" t="n">
-        <v>143.426367325573</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="X35" t="n">
-        <v>143.426367325573</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="Y35" t="n">
-        <v>94.97151349936588</v>
+        <v>73.9562867807563</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.7473320754498</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="C36" t="n">
-        <v>100.7473320754498</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="D36" t="n">
-        <v>100.7473320754498</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E36" t="n">
-        <v>52.2924782492427</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F36" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G36" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H36" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I36" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J36" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K36" t="n">
-        <v>32.10331837128842</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L36" t="n">
-        <v>46.3237259805375</v>
+        <v>69.87882285983801</v>
       </c>
       <c r="M36" t="n">
-        <v>93.81432821560307</v>
+        <v>137.0439050260901</v>
       </c>
       <c r="N36" t="n">
-        <v>141.3049304506686</v>
+        <v>204.2089871923422</v>
       </c>
       <c r="O36" t="n">
-        <v>170.2514083908119</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P36" t="n">
-        <v>191.8812211517801</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q36" t="n">
-        <v>191.8812211517801</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R36" t="n">
-        <v>191.8812211517801</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S36" t="n">
-        <v>191.8812211517801</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T36" t="n">
-        <v>149.2021859016569</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U36" t="n">
-        <v>100.7473320754498</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="V36" t="n">
-        <v>100.7473320754498</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="W36" t="n">
-        <v>100.7473320754498</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="X36" t="n">
-        <v>100.7473320754498</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="Y36" t="n">
-        <v>100.7473320754498</v>
+        <v>142.4850921743407</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>143.426367325573</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="C38" t="n">
-        <v>94.97151349936588</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="D38" t="n">
-        <v>94.97151349936588</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E38" t="n">
-        <v>94.97151349936588</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F38" t="n">
-        <v>94.97151349936588</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G38" t="n">
-        <v>46.51665967315878</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="H38" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I38" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J38" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K38" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L38" t="n">
-        <v>51.32822665810117</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M38" t="n">
-        <v>82.94553027531109</v>
+        <v>130.558855348574</v>
       </c>
       <c r="N38" t="n">
-        <v>130.4361325103767</v>
+        <v>197.7239375148261</v>
       </c>
       <c r="O38" t="n">
-        <v>177.9267347454422</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P38" t="n">
-        <v>191.8812211517801</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q38" t="n">
-        <v>191.8812211517801</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R38" t="n">
-        <v>191.8812211517801</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S38" t="n">
-        <v>191.8812211517801</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T38" t="n">
-        <v>143.426367325573</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U38" t="n">
-        <v>143.426367325573</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="V38" t="n">
-        <v>143.426367325573</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="W38" t="n">
-        <v>143.426367325573</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="X38" t="n">
-        <v>143.426367325573</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="Y38" t="n">
-        <v>143.426367325573</v>
+        <v>134.3164585714254</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>149.2021859016569</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="C39" t="n">
-        <v>100.7473320754498</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="D39" t="n">
-        <v>100.7473320754498</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E39" t="n">
-        <v>100.7473320754498</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F39" t="n">
-        <v>100.7473320754498</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G39" t="n">
-        <v>52.2924782492427</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H39" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I39" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J39" t="n">
-        <v>3.837624423035602</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K39" t="n">
-        <v>3.837624423035602</v>
+        <v>33.6931753354247</v>
       </c>
       <c r="L39" t="n">
-        <v>49.40941444658336</v>
+        <v>100.8582575016768</v>
       </c>
       <c r="M39" t="n">
-        <v>96.90001668164894</v>
+        <v>168.0233396679289</v>
       </c>
       <c r="N39" t="n">
-        <v>144.3906189167145</v>
+        <v>235.188421834181</v>
       </c>
       <c r="O39" t="n">
-        <v>191.8812211517801</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P39" t="n">
-        <v>191.8812211517801</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q39" t="n">
-        <v>191.8812211517801</v>
+        <v>248.6174990777775</v>
       </c>
       <c r="R39" t="n">
-        <v>191.8812211517801</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="S39" t="n">
-        <v>191.8812211517801</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="T39" t="n">
-        <v>191.8812211517801</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="U39" t="n">
-        <v>191.8812211517801</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="V39" t="n">
-        <v>191.8812211517801</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="W39" t="n">
-        <v>149.2021859016569</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="X39" t="n">
-        <v>149.2021859016569</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="Y39" t="n">
-        <v>149.2021859016569</v>
+        <v>142.4850921743407</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="C40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="D40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="E40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="F40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="G40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="H40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="I40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="J40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="K40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="L40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="M40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="N40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="O40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="V40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="W40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="X40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.837624423035602</v>
+        <v>271.3740693585943</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63.05979638003953</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="C41" t="n">
-        <v>30.88643088001936</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="D41" t="n">
-        <v>30.88643088001936</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="E41" t="n">
-        <v>30.88643088001936</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="F41" t="n">
-        <v>2.548130547601597</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="G41" t="n">
-        <v>2.548130547601597</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="H41" t="n">
-        <v>2.548130547601597</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="I41" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J41" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K41" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L41" t="n">
-        <v>18.8526943940327</v>
+        <v>32.76377984426642</v>
       </c>
       <c r="M41" t="n">
-        <v>50.38580992060246</v>
+        <v>77.66774449290548</v>
       </c>
       <c r="N41" t="n">
-        <v>81.91892544717223</v>
+        <v>122.5717091415445</v>
       </c>
       <c r="O41" t="n">
-        <v>113.452040973742</v>
+        <v>167.4756737901836</v>
       </c>
       <c r="P41" t="n">
-        <v>127.4065273800799</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q41" t="n">
-        <v>127.4065273800799</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R41" t="n">
-        <v>127.4065273800799</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S41" t="n">
-        <v>127.4065273800799</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T41" t="n">
-        <v>127.4065273800799</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U41" t="n">
-        <v>127.4065273800799</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="V41" t="n">
-        <v>127.4065273800799</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="W41" t="n">
-        <v>127.4065273800799</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="X41" t="n">
-        <v>95.2331618800597</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Y41" t="n">
-        <v>63.05979638003953</v>
+        <v>141.0756942619012</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.129860599202615</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="C42" t="n">
-        <v>8.129860599202615</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="D42" t="n">
-        <v>8.129860599202615</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="E42" t="n">
-        <v>8.129860599202615</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="F42" t="n">
-        <v>8.129860599202615</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="G42" t="n">
-        <v>8.129860599202615</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H42" t="n">
-        <v>8.129860599202615</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I42" t="n">
-        <v>8.129860599202615</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J42" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K42" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L42" t="n">
-        <v>16.76853815685068</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M42" t="n">
-        <v>48.30165368342045</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N42" t="n">
-        <v>79.83476920999021</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O42" t="n">
-        <v>108.7812471501335</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="P42" t="n">
-        <v>127.4065273800799</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.6499570992631</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R42" t="n">
-        <v>72.47659159924295</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="S42" t="n">
-        <v>40.30322609922278</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="T42" t="n">
-        <v>8.129860599202615</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="U42" t="n">
-        <v>8.129860599202615</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="V42" t="n">
-        <v>8.129860599202615</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="W42" t="n">
-        <v>8.129860599202615</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="X42" t="n">
-        <v>8.129860599202615</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.129860599202615</v>
+        <v>49.44430022325403</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.548130547601597</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.012358307178602</v>
+        <v>90.94173540790645</v>
       </c>
       <c r="C44" t="n">
-        <v>6.012358307178602</v>
+        <v>90.94173540790645</v>
       </c>
       <c r="D44" t="n">
-        <v>6.012358307178602</v>
+        <v>90.94173540790645</v>
       </c>
       <c r="E44" t="n">
-        <v>4.494086007386025</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="F44" t="n">
-        <v>2.975813707593449</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="G44" t="n">
-        <v>1.457541407800873</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H44" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I44" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J44" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K44" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L44" t="n">
-        <v>0.120247166143572</v>
+        <v>16.1615461980536</v>
       </c>
       <c r="M44" t="n">
-        <v>1.54818226409849</v>
+        <v>45.10802413819685</v>
       </c>
       <c r="N44" t="n">
-        <v>3.036240945125193</v>
+        <v>74.05450207834011</v>
       </c>
       <c r="O44" t="n">
-        <v>4.524299626151898</v>
+        <v>103.0009800184834</v>
       </c>
       <c r="P44" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="R44" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="S44" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="T44" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="U44" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="V44" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="W44" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="X44" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C45" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D45" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E45" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F45" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G45" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H45" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I45" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J45" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K45" t="n">
-        <v>0.120247166143572</v>
+        <v>15.89562499514238</v>
       </c>
       <c r="L45" t="n">
-        <v>1.608305847170276</v>
+        <v>30.11603260439146</v>
       </c>
       <c r="M45" t="n">
-        <v>3.09636452819698</v>
+        <v>59.06251054453472</v>
       </c>
       <c r="N45" t="n">
-        <v>4.524299626151898</v>
+        <v>88.00898848467797</v>
       </c>
       <c r="O45" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="P45" t="n">
-        <v>6.012358307178602</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q45" t="n">
-        <v>4.6750640655213</v>
+        <v>94.19889614400448</v>
       </c>
       <c r="R45" t="n">
-        <v>3.156791765728724</v>
+        <v>94.19889614400448</v>
       </c>
       <c r="S45" t="n">
-        <v>1.638519465936148</v>
+        <v>64.6646874508678</v>
       </c>
       <c r="T45" t="n">
-        <v>1.638519465936148</v>
+        <v>64.6646874508678</v>
       </c>
       <c r="U45" t="n">
-        <v>1.638519465936148</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="V45" t="n">
-        <v>0.120247166143572</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="W45" t="n">
-        <v>0.120247166143572</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="X45" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="M46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="N46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="O46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="P46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="R46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="S46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="T46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="U46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.120247166143572</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8066,13 @@
         <v>57.07593346819698</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322065</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863848</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853116</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P3" t="n">
         <v>67.92252959633595</v>
@@ -8222,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>115.6369019185769</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N5" t="n">
-        <v>110.6921745993661</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>56.25777287631649</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M6" t="n">
-        <v>37.05479400263818</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N6" t="n">
-        <v>16.75002596891682</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O6" t="n">
-        <v>48.1476988309816</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P6" t="n">
-        <v>67.20298458372523</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8459,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>89.358722162329</v>
+        <v>109.0330774045742</v>
       </c>
       <c r="N8" t="n">
-        <v>83.98878642167105</v>
+        <v>103.9814933006409</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>38.8718120156598</v>
+        <v>51.88860288067409</v>
       </c>
       <c r="M9" t="n">
-        <v>16.76619772104769</v>
+        <v>31.9561786981586</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>11.516465488731</v>
       </c>
       <c r="O9" t="n">
-        <v>29.09636626239168</v>
+        <v>43.36001345064398</v>
       </c>
       <c r="P9" t="n">
-        <v>51.91261060228354</v>
+        <v>63.3604449762052</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8693,16 +8695,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>64.0021633330233</v>
+        <v>79.27897249523153</v>
       </c>
       <c r="M11" t="n">
         <v>38.13372987968438</v>
       </c>
       <c r="N11" t="n">
-        <v>31.46180477983029</v>
+        <v>31.46180477983035</v>
       </c>
       <c r="O11" t="n">
-        <v>51.03774184036877</v>
+        <v>35.76093267816073</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8769,10 +8771,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>40.20975561493427</v>
+        <v>53.90320578326357</v>
       </c>
       <c r="L12" t="n">
-        <v>13.69345016832926</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>31.46180477983029</v>
       </c>
       <c r="O14" t="n">
-        <v>35.7609326781606</v>
+        <v>35.76093267816061</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9009,7 +9011,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L15" t="n">
-        <v>13.69345016832926</v>
+        <v>13.69345016832925</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9167,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>95.39764593815653</v>
+        <v>85.57961628857112</v>
       </c>
       <c r="M17" t="n">
-        <v>54.25240332260944</v>
+        <v>60.61970717020256</v>
       </c>
       <c r="N17" t="n">
-        <v>31.65240952749973</v>
+        <v>53.94778207034847</v>
       </c>
       <c r="O17" t="n">
-        <v>67.15641528329382</v>
+        <v>73.52371913088695</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9246,16 +9248,16 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L18" t="n">
-        <v>30.99349195897977</v>
+        <v>37.36079580657292</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>4.277411164897266</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>14.28604556215212</v>
+        <v>22.48597729051821</v>
       </c>
       <c r="P18" t="n">
         <v>5.093443300258059</v>
@@ -9401,19 +9403,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L20" t="n">
-        <v>108.5919157831171</v>
+        <v>101.0470301984486</v>
       </c>
       <c r="M20" t="n">
-        <v>84.60094559083475</v>
+        <v>76.73838061312767</v>
       </c>
       <c r="N20" t="n">
-        <v>77.92902049098066</v>
+        <v>70.06645551327358</v>
       </c>
       <c r="O20" t="n">
-        <v>97.50495755151914</v>
+        <v>89.64239257381206</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9480,19 +9482,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L21" t="n">
-        <v>37.59456158779398</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M21" t="n">
-        <v>30.34854226822532</v>
+        <v>19.74482507477482</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>46.46721571115037</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="P21" t="n">
         <v>5.093443300258059</v>
@@ -9717,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L24" t="n">
-        <v>40.54000984939158</v>
+        <v>62.84512380399974</v>
       </c>
       <c r="M24" t="n">
-        <v>31.85163184501997</v>
+        <v>8.858857292542694</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>47.97030528794502</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>5.093443300258059</v>
+        <v>82.30261519440836</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9881,10 +9883,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>86.10403516762938</v>
+        <v>86.10403516762941</v>
       </c>
       <c r="N26" t="n">
-        <v>79.43211006777528</v>
+        <v>79.43211006777531</v>
       </c>
       <c r="O26" t="n">
         <v>99.00804712831379</v>
@@ -9954,10 +9956,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L27" t="n">
-        <v>43.15277508820625</v>
+        <v>62.84512380399974</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>8.85885729254268</v>
       </c>
       <c r="P27" t="n">
         <v>82.30261519440836</v>
@@ -10118,10 +10120,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>86.10403516762938</v>
+        <v>86.10403516762941</v>
       </c>
       <c r="N29" t="n">
-        <v>79.43211006777528</v>
+        <v>79.43211006777531</v>
       </c>
       <c r="O29" t="n">
         <v>99.00804712831379</v>
@@ -10197,16 +10199,16 @@
         <v>62.84512380399974</v>
       </c>
       <c r="M30" t="n">
-        <v>8.858857292542694</v>
+        <v>31.85163184501997</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>6.246092053728034</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>47.97030528794502</v>
       </c>
       <c r="P30" t="n">
-        <v>82.30261519440839</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10355,10 +10357,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>86.10403516762946</v>
+        <v>86.10403516762941</v>
       </c>
       <c r="N32" t="n">
-        <v>79.43211006777537</v>
+        <v>79.43211006777531</v>
       </c>
       <c r="O32" t="n">
         <v>99.00804712831379</v>
@@ -10428,22 +10430,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>62.84512380399977</v>
+        <v>62.84512380399974</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>31.85163184501997</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>8.85885729254268</v>
+        <v>25.66519133333686</v>
       </c>
       <c r="P33" t="n">
-        <v>82.30261519440839</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10589,16 +10591,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L35" t="n">
-        <v>81.97677620944022</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>56.8651685614241</v>
+        <v>69.19349502845932</v>
       </c>
       <c r="N35" t="n">
-        <v>50.19324346157001</v>
+        <v>70.06645551327364</v>
       </c>
       <c r="O35" t="n">
-        <v>69.76918052210848</v>
+        <v>89.64239257381212</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10665,22 +10667,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>50.73831703375463</v>
       </c>
       <c r="M36" t="n">
-        <v>2.61276523881466</v>
+        <v>22.48597729051824</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>38.60465073344329</v>
       </c>
       <c r="P36" t="n">
-        <v>26.94173901840776</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10826,16 +10828,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>98.01041117697119</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>40.83153359389313</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N38" t="n">
-        <v>50.19324346157001</v>
+        <v>70.06645551327355</v>
       </c>
       <c r="O38" t="n">
-        <v>69.76918052210848</v>
+        <v>82.0975069891436</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10902,19 +10904,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>31.66806304474614</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M39" t="n">
-        <v>2.61276523881466</v>
+        <v>22.48597729051821</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>18.73143868173972</v>
+        <v>7.312292509363679</v>
       </c>
       <c r="P39" t="n">
         <v>5.093443300258059</v>
@@ -11063,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>66.50936229956262</v>
+        <v>79.46957724290091</v>
       </c>
       <c r="M41" t="n">
-        <v>40.74649511849904</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N41" t="n">
-        <v>34.07457001864495</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O41" t="n">
-        <v>53.65050707918343</v>
+        <v>67.15641528329382</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11142,7 +11144,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>30.99349195897977</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>14.28604556215212</v>
       </c>
       <c r="P42" t="n">
-        <v>23.90685767394129</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11297,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L44" t="n">
-        <v>50.04010588902617</v>
+        <v>64.00216333302332</v>
       </c>
       <c r="M44" t="n">
-        <v>10.33722195828202</v>
+        <v>38.13372987968438</v>
       </c>
       <c r="N44" t="n">
-        <v>3.726027750419632</v>
+        <v>31.46180477983029</v>
       </c>
       <c r="O44" t="n">
-        <v>23.30196481095811</v>
+        <v>51.03774184036877</v>
       </c>
       <c r="P44" t="n">
-        <v>71.07531288689745</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20975561493427</v>
+        <v>53.90320578326352</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.33726707119455</v>
+        <v>22.33726707119456</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.33022448342575</v>
+        <v>22.33726707119456</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22.18056907772502</v>
+        <v>22.29261540829243</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23270,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9687301059741</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H11" t="n">
-        <v>315.7279540200221</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I11" t="n">
-        <v>206.379156004557</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>33.04016118063683</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.2082294730605</v>
+        <v>38.96936286685522</v>
       </c>
       <c r="R11" t="n">
-        <v>180.8732471227138</v>
+        <v>151.6343805165085</v>
       </c>
       <c r="S11" t="n">
-        <v>224.8250298051639</v>
+        <v>195.5861631989586</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3376759156334</v>
+        <v>191.5840822088878</v>
       </c>
       <c r="U11" t="n">
         <v>248.7521737158166</v>
@@ -23349,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0161887717688</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H12" t="n">
-        <v>106.1435293258269</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I12" t="n">
-        <v>79.2702914866574</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>29.05484284449857</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.52900457800858</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R12" t="n">
-        <v>139.1693410830749</v>
+        <v>109.9304744768696</v>
       </c>
       <c r="S12" t="n">
-        <v>203.4683135038341</v>
+        <v>174.2294468976288</v>
       </c>
       <c r="T12" t="n">
-        <v>229.1070318577418</v>
+        <v>199.8681652515365</v>
       </c>
       <c r="U12" t="n">
-        <v>249.633423953496</v>
+        <v>223.8798302467504</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23440,22 +23442,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K13" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L13" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M13" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N13" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O13" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P13" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q13" t="n">
         <v>134.42632090912</v>
@@ -23510,13 +23512,13 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H14" t="n">
-        <v>315.7279540200221</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I14" t="n">
-        <v>206.379156004557</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>33.04016118063683</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.45463576631487</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R14" t="n">
-        <v>180.8732471227138</v>
+        <v>151.6343805165085</v>
       </c>
       <c r="S14" t="n">
-        <v>224.8250298051639</v>
+        <v>195.5861631989586</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3376759156334</v>
+        <v>188.0988093094281</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7521737158166</v>
+        <v>222.998580009071</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,7 +23588,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>135.0161887717688</v>
+        <v>131.5309158723091</v>
       </c>
       <c r="H15" t="n">
         <v>106.1435293258269</v>
@@ -23595,7 +23597,7 @@
         <v>79.2702914866574</v>
       </c>
       <c r="J15" t="n">
-        <v>29.05484284449857</v>
+        <v>32.54011574395825</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23738,19 +23740,19 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>314.601014887157</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
-        <v>399.146417573369</v>
+        <v>347.4215736766455</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7223238127198</v>
+        <v>369.9974799159962</v>
       </c>
       <c r="H17" t="n">
-        <v>344.9668206262274</v>
+        <v>293.2419767295039</v>
       </c>
       <c r="I17" t="n">
-        <v>195.6671013354883</v>
+        <v>190.0587801065283</v>
       </c>
       <c r="J17" t="n">
         <v>62.27902778684214</v>
@@ -23780,13 +23782,13 @@
         <v>180.8732471227138</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4674897560336</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T17" t="n">
         <v>217.3376759156334</v>
       </c>
       <c r="U17" t="n">
-        <v>203.3946336666862</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23826,13 +23828,13 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3823959320322</v>
+        <v>83.6575520353087</v>
       </c>
       <c r="I18" t="n">
-        <v>108.5091580928627</v>
+        <v>56.78431419613919</v>
       </c>
       <c r="J18" t="n">
-        <v>58.29370945070387</v>
+        <v>6.568865553980359</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>93.81180103394456</v>
+        <v>116.1391031568495</v>
       </c>
       <c r="S18" t="n">
-        <v>158.1107734547038</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T18" t="n">
-        <v>183.7494918086114</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U18" t="n">
-        <v>232.2115072562306</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23975,22 +23977,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2524726189316</v>
+        <v>300.2019848635249</v>
       </c>
       <c r="F20" t="n">
-        <v>399.146417573369</v>
+        <v>331.3029002337205</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7223238127198</v>
+        <v>353.8788064730712</v>
       </c>
       <c r="H20" t="n">
-        <v>333.0660782636475</v>
+        <v>277.1233032865789</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9119402934067</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R20" t="n">
         <v>180.8732471227138</v>
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>112.3066750636788</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>96.39286006215653</v>
+        <v>104.2554250398636</v>
       </c>
       <c r="E21" t="n">
-        <v>111.7544629802472</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F21" t="n">
-        <v>107.302430820197</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
         <v>160.7697824785144</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3823959320322</v>
+        <v>75.6258258592698</v>
       </c>
       <c r="I21" t="n">
         <v>108.5091580928627</v>
@@ -24096,10 +24098,10 @@
         <v>139.1693410830749</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>135.6247961641856</v>
       </c>
       <c r="T21" t="n">
-        <v>229.1070318577418</v>
+        <v>161.2635145180932</v>
       </c>
       <c r="U21" t="n">
         <v>249.633423953496</v>
@@ -24212,7 +24214,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E23" t="n">
-        <v>359.9585549362873</v>
+        <v>282.749383042137</v>
       </c>
       <c r="F23" t="n">
         <v>399.146417573369</v>
@@ -24254,22 +24256,22 @@
         <v>180.8732471227138</v>
       </c>
       <c r="S23" t="n">
-        <v>224.8250298051639</v>
+        <v>158.2328469477717</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3376759156334</v>
+        <v>140.1285040214831</v>
       </c>
       <c r="U23" t="n">
         <v>171.5430018216663</v>
       </c>
       <c r="V23" t="n">
-        <v>236.0952701068728</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W23" t="n">
-        <v>248.182553585143</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>282.2246964461207</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
         <v>377.9289763951821</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>188.0127573810344</v>
+        <v>110.8035854868841</v>
       </c>
       <c r="C24" t="n">
         <v>203.8424276152394</v>
@@ -24327,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R24" t="n">
-        <v>93.6925070567159</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S24" t="n">
         <v>126.2591416096838</v>
@@ -24339,7 +24341,7 @@
         <v>151.8978599635914</v>
       </c>
       <c r="U24" t="n">
-        <v>172.4242520593457</v>
+        <v>181.6275853491284</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>364.5563275970632</v>
+        <v>287.3471557029128</v>
       </c>
       <c r="C26" t="n">
-        <v>333.5971194742085</v>
+        <v>256.3879475800582</v>
       </c>
       <c r="D26" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>282.749383042137</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F26" t="n">
         <v>399.146417573369</v>
@@ -24458,13 +24460,13 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H26" t="n">
-        <v>344.9668206262274</v>
+        <v>267.7576487320771</v>
       </c>
       <c r="I26" t="n">
-        <v>231.3048675402123</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.2082294730605</v>
+        <v>1.616046615668324</v>
       </c>
       <c r="R26" t="n">
         <v>180.8732471227138</v>
@@ -24494,13 +24496,13 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T26" t="n">
-        <v>140.1285040214831</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U26" t="n">
         <v>248.7521737158166</v>
       </c>
       <c r="V26" t="n">
-        <v>236.0952701068728</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.8035854868841</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>126.6332557210891</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
         <v>172.0989423795122</v>
@@ -24531,13 +24533,13 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>173.9843481253239</v>
+        <v>96.77517623117359</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7697824785144</v>
+        <v>83.5606105843641</v>
       </c>
       <c r="H27" t="n">
-        <v>58.17322403788187</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I27" t="n">
         <v>108.5091580928627</v>
@@ -24570,10 +24572,10 @@
         <v>139.1693410830749</v>
       </c>
       <c r="S27" t="n">
-        <v>203.4683135038341</v>
+        <v>126.2591416096838</v>
       </c>
       <c r="T27" t="n">
-        <v>229.1070318577418</v>
+        <v>161.1011932533742</v>
       </c>
       <c r="U27" t="n">
         <v>249.633423953496</v>
@@ -24585,7 +24587,7 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X27" t="n">
-        <v>162.0272251065954</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
         <v>242.8962664135933</v>
@@ -24683,25 +24685,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>241.9225837490973</v>
       </c>
       <c r="E29" t="n">
-        <v>359.9585549362873</v>
+        <v>282.749383042137</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>321.9372456792187</v>
       </c>
       <c r="G29" t="n">
-        <v>344.5131519185694</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H29" t="n">
-        <v>331.6527231345876</v>
+        <v>278.3746377688353</v>
       </c>
       <c r="I29" t="n">
-        <v>158.408850716612</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R29" t="n">
         <v>180.8732471227138</v>
@@ -24768,13 +24770,13 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>96.77517623117359</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>83.5606105843641</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3823959320322</v>
+        <v>58.17322403788188</v>
       </c>
       <c r="I30" t="n">
         <v>108.5091580928627</v>
@@ -24801,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>139.1693410830749</v>
@@ -24810,7 +24812,7 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T30" t="n">
-        <v>161.1011932533742</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U30" t="n">
         <v>249.633423953496</v>
@@ -24819,10 +24821,10 @@
         <v>172.090753286022</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>237.7724227365721</v>
       </c>
       <c r="X30" t="n">
-        <v>230.033063710963</v>
+        <v>152.8238918168126</v>
       </c>
       <c r="Y30" t="n">
         <v>242.8962664135933</v>
@@ -24929,7 +24931,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7223238127198</v>
+        <v>344.5131519185694</v>
       </c>
       <c r="H32" t="n">
         <v>344.9668206262274</v>
@@ -24938,7 +24940,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J32" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.616046615668438</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R32" t="n">
-        <v>180.8732471227138</v>
+        <v>114.2810642653216</v>
       </c>
       <c r="S32" t="n">
-        <v>224.8250298051639</v>
+        <v>147.6158579110136</v>
       </c>
       <c r="T32" t="n">
         <v>217.3376759156334</v>
       </c>
       <c r="U32" t="n">
-        <v>171.5430018216663</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -24983,7 +24985,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>300.7198045010318</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.8035854868841</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
         <v>203.8424276152394</v>
@@ -25002,7 +25004,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
-        <v>187.4605452976028</v>
+        <v>110.2513734034525</v>
       </c>
       <c r="F33" t="n">
         <v>173.9843481253239</v>
@@ -25014,7 +25016,7 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I33" t="n">
-        <v>108.5091580928627</v>
+        <v>31.29998619871238</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>12.81687542434488</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R33" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S33" t="n">
-        <v>126.2591416096838</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1070318577418</v>
+        <v>219.394902704078</v>
       </c>
       <c r="U33" t="n">
-        <v>172.4242520593457</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25059,7 +25061,7 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
-        <v>230.033063710963</v>
+        <v>152.8238918168126</v>
       </c>
       <c r="Y33" t="n">
         <v>242.8962664135933</v>
@@ -25102,7 +25104,7 @@
         <v>63.58271276927572</v>
       </c>
       <c r="L34" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M34" t="n">
         <v>25.42579023297466</v>
@@ -25111,10 +25113,10 @@
         <v>13.84983270846368</v>
       </c>
       <c r="O34" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P34" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q34" t="n">
         <v>134.42632090912</v>
@@ -25154,10 +25156,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>285.6268141862635</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
-        <v>276.8795107456257</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E35" t="n">
         <v>359.9585549362873</v>
@@ -25169,13 +25171,13 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H35" t="n">
-        <v>344.9668206262274</v>
+        <v>277.1233032865789</v>
       </c>
       <c r="I35" t="n">
         <v>235.6180226107624</v>
       </c>
       <c r="J35" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.2082294730605</v>
+        <v>8.451659400298084</v>
       </c>
       <c r="R35" t="n">
         <v>180.8732471227138</v>
@@ -25211,16 +25213,16 @@
         <v>248.7521737158166</v>
       </c>
       <c r="V35" t="n">
-        <v>265.3341367130781</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>325.3917254792934</v>
+        <v>257.5482081396448</v>
       </c>
       <c r="X35" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>329.9586711072371</v>
+        <v>310.0854590555335</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>188.0127573810344</v>
+        <v>120.1692400413859</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
@@ -25239,10 +25241,10 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E36" t="n">
-        <v>139.4902400096578</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>126.0140428373789</v>
+        <v>106.1408307856753</v>
       </c>
       <c r="G36" t="n">
         <v>160.7697824785144</v>
@@ -25254,7 +25256,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J36" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,28 +25277,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.52900457800858</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R36" t="n">
-        <v>139.1693410830749</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S36" t="n">
         <v>203.4683135038341</v>
       </c>
       <c r="T36" t="n">
-        <v>186.8547869601198</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U36" t="n">
-        <v>201.663118665551</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>223.4926866901687</v>
       </c>
       <c r="X36" t="n">
-        <v>230.033063710963</v>
+        <v>162.1895463713144</v>
       </c>
       <c r="Y36" t="n">
         <v>242.8962664135933</v>
@@ -25336,22 +25338,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K37" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L37" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M37" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N37" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O37" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P37" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q37" t="n">
         <v>134.42632090912</v>
@@ -25391,7 +25393,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>285.6268141862635</v>
+        <v>273.840549401446</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
@@ -25403,10 +25405,10 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>373.7520185247747</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H38" t="n">
-        <v>302.7145757286055</v>
+        <v>277.1233032865789</v>
       </c>
       <c r="I38" t="n">
         <v>235.6180226107624</v>
@@ -25442,10 +25444,10 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T38" t="n">
-        <v>169.3673706276884</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7521737158166</v>
+        <v>180.908656376168</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25454,7 +25456,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>348.8168793035129</v>
+        <v>280.9733619638644</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25470,10 +25472,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>155.8721223272944</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
-        <v>172.0989423795122</v>
+        <v>104.2554250398636</v>
       </c>
       <c r="E39" t="n">
         <v>187.4605452976028</v>
@@ -25482,10 +25484,10 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>112.7994771905694</v>
+        <v>92.92626513886586</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41209064408719</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I39" t="n">
         <v>108.5091580928627</v>
@@ -25512,16 +25514,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>139.1693410830749</v>
+        <v>101.9417755883211</v>
       </c>
       <c r="S39" t="n">
         <v>203.4683135038341</v>
       </c>
       <c r="T39" t="n">
-        <v>229.1070318577418</v>
+        <v>161.2635145180932</v>
       </c>
       <c r="U39" t="n">
         <v>249.633423953496</v>
@@ -25530,7 +25532,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>240.9970118653091</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25628,7 +25630,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>301.7454876291885</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
@@ -25637,16 +25639,16 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>371.0915002442754</v>
+        <v>353.7888775242387</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7223238127198</v>
+        <v>376.3647837635894</v>
       </c>
       <c r="H41" t="n">
         <v>344.9668206262274</v>
       </c>
       <c r="I41" t="n">
-        <v>235.6180226107624</v>
+        <v>190.260482561632</v>
       </c>
       <c r="J41" t="n">
         <v>62.27902778684214</v>
@@ -25691,10 +25693,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
-        <v>316.965247458493</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>346.0773445501621</v>
+        <v>337.9780551199081</v>
       </c>
     </row>
     <row r="42">
@@ -25719,7 +25721,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7697824785144</v>
+        <v>115.4122424293841</v>
       </c>
       <c r="H42" t="n">
         <v>135.3823959320322</v>
@@ -25728,7 +25730,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J42" t="n">
-        <v>52.76779669961886</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,16 +25751,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R42" t="n">
-        <v>107.317709238055</v>
+        <v>99.21841980780093</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6166816588142</v>
+        <v>158.1107734547038</v>
       </c>
       <c r="T42" t="n">
-        <v>197.2554000127218</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U42" t="n">
         <v>249.633423953496</v>
@@ -25773,7 +25775,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>242.8962664135933</v>
+        <v>197.538726364463</v>
       </c>
     </row>
     <row r="43">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.5563275970632</v>
+        <v>338.8027338903175</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
@@ -25871,16 +25873,16 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
-        <v>358.4554653594927</v>
+        <v>330.719688330082</v>
       </c>
       <c r="F44" t="n">
-        <v>397.6433279965744</v>
+        <v>369.9075509671637</v>
       </c>
       <c r="G44" t="n">
-        <v>420.2192342359251</v>
+        <v>392.4834572065145</v>
       </c>
       <c r="H44" t="n">
-        <v>343.6428993269867</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I44" t="n">
         <v>235.6180226107624</v>
@@ -25986,28 +25988,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.20508327876786</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>137.6662515062803</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S45" t="n">
-        <v>201.9652239270395</v>
+        <v>174.2294468976288</v>
       </c>
       <c r="T45" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U45" t="n">
-        <v>249.633423953496</v>
+        <v>246.408834824759</v>
       </c>
       <c r="V45" t="n">
-        <v>247.7968356033777</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2492567629311</v>
+        <v>254.0103901567258</v>
       </c>
       <c r="X45" t="n">
-        <v>230.033063710963</v>
+        <v>200.7941971047577</v>
       </c>
       <c r="Y45" t="n">
         <v>242.8962664135933</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1135525.081074749</v>
+        <v>1135610.756778145</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1133743.34805978</v>
+        <v>1135067.552667312</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>401188.9556799442</v>
+        <v>401188.955679944</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>401188.9556799442</v>
+        <v>401188.9556799441</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>411600.3870815827</v>
+        <v>415773.9229143584</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>431567.7603902781</v>
+        <v>426339.1264606424</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432409.2684875121</v>
+        <v>432409.2684875122</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432409.2684875121</v>
+        <v>432409.2684875123</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>413312.9595624679</v>
+        <v>426339.1264606423</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>413312.9595624681</v>
+        <v>426339.1264606424</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402876.602380451</v>
+        <v>411600.3870815827</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>383661.6352646694</v>
+        <v>401188.9556799441</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546840.7587480413</v>
+        <v>546840.7587480417</v>
       </c>
       <c r="C2" t="n">
-        <v>546841.0810872838</v>
+        <v>546840.7587480418</v>
       </c>
       <c r="D2" t="n">
-        <v>546847.9308152028</v>
+        <v>546842.802454653</v>
       </c>
       <c r="E2" t="n">
         <v>190767.9597029491</v>
@@ -26326,16 +26328,16 @@
         <v>190767.9597029491</v>
       </c>
       <c r="G2" t="n">
-        <v>195156.077057945</v>
+        <v>196889.4998868825</v>
       </c>
       <c r="H2" t="n">
-        <v>203418.1071497872</v>
+        <v>201277.6172418782</v>
       </c>
       <c r="I2" t="n">
-        <v>203762.6024068263</v>
+        <v>203762.6024068262</v>
       </c>
       <c r="J2" t="n">
-        <v>203762.6024068263</v>
+        <v>203762.6024068262</v>
       </c>
       <c r="K2" t="n">
         <v>203762.6024068262</v>
@@ -26344,16 +26346,16 @@
         <v>203762.6024068262</v>
       </c>
       <c r="M2" t="n">
-        <v>195867.3713545613</v>
+        <v>201277.6172418782</v>
       </c>
       <c r="N2" t="n">
-        <v>195867.3713545612</v>
+        <v>201277.6172418783</v>
       </c>
       <c r="O2" t="n">
-        <v>191479.2539995654</v>
+        <v>195156.0770579448</v>
       </c>
       <c r="P2" t="n">
-        <v>183217.2239077231</v>
+        <v>190767.9597029491</v>
       </c>
     </row>
     <row r="3">
@@ -26366,25 +26368,25 @@
         <v>300331.6078316385</v>
       </c>
       <c r="C3" t="n">
-        <v>1595.232383728625</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>31881.53742367344</v>
+        <v>9512.276921623736</v>
       </c>
       <c r="E3" t="n">
-        <v>100308.7929479959</v>
+        <v>122700.8595295626</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4417.886610604115</v>
+        <v>6163.069085671684</v>
       </c>
       <c r="H3" t="n">
-        <v>8188.309840847605</v>
+        <v>4348.963162962167</v>
       </c>
       <c r="I3" t="n">
-        <v>399.7030833508102</v>
+        <v>2490.524224787662</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4952.483936132731</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>406228.0549947771</v>
       </c>
       <c r="C4" t="n">
-        <v>405750.1270662465</v>
+        <v>406228.0549947771</v>
       </c>
       <c r="D4" t="n">
-        <v>395633.0111186536</v>
+        <v>403197.8795171243</v>
       </c>
       <c r="E4" t="n">
         <v>11379.9638164747</v>
@@ -26430,34 +26432,34 @@
         <v>11379.9638164747</v>
       </c>
       <c r="G4" t="n">
-        <v>12836.05248550038</v>
+        <v>13471.99023740497</v>
       </c>
       <c r="H4" t="n">
-        <v>15942.13764852424</v>
+        <v>15081.85105107616</v>
       </c>
       <c r="I4" t="n">
         <v>16080.59410721632</v>
       </c>
       <c r="J4" t="n">
+        <v>16080.59410721631</v>
+      </c>
+      <c r="K4" t="n">
         <v>16080.59410721632</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16080.59410721631</v>
       </c>
       <c r="L4" t="n">
         <v>16080.59410721632</v>
       </c>
       <c r="M4" t="n">
-        <v>13097.00375969697</v>
+        <v>15081.85105107616</v>
       </c>
       <c r="N4" t="n">
-        <v>13097.00375969696</v>
+        <v>15081.85105107616</v>
       </c>
       <c r="O4" t="n">
-        <v>11615.98931029299</v>
+        <v>12836.05248550038</v>
       </c>
       <c r="P4" t="n">
-        <v>9262.310340182919</v>
+        <v>11379.9638164747</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>40422.05903150925</v>
       </c>
       <c r="C5" t="n">
-        <v>40460.24922433255</v>
+        <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
-        <v>41271.79307559616</v>
+        <v>40664.19383651173</v>
       </c>
       <c r="E5" t="n">
         <v>11906.86567606057</v>
@@ -26482,10 +26484,10 @@
         <v>11906.86567606057</v>
       </c>
       <c r="G5" t="n">
-        <v>12886.88102139042</v>
+        <v>13274.01309532408</v>
       </c>
       <c r="H5" t="n">
-        <v>14732.07239129852</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="I5" t="n">
         <v>14823.46023756763</v>
@@ -26500,16 +26502,16 @@
         <v>14823.46023756763</v>
       </c>
       <c r="M5" t="n">
-        <v>13045.73714791035</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="N5" t="n">
-        <v>13045.73714791035</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="O5" t="n">
-        <v>12065.7218025805</v>
+        <v>12886.88102139042</v>
       </c>
       <c r="P5" t="n">
-        <v>10220.53043267241</v>
+        <v>11906.86567606057</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200140.9631098836</v>
+        <v>-200140.9631098832</v>
       </c>
       <c r="C6" t="n">
-        <v>99035.47241297612</v>
+        <v>100190.6447217554</v>
       </c>
       <c r="D6" t="n">
-        <v>78061.58919727954</v>
+        <v>93468.45217939318</v>
       </c>
       <c r="E6" t="n">
-        <v>67172.33726241786</v>
+        <v>44780.27068085123</v>
       </c>
       <c r="F6" t="n">
         <v>167481.1302104138</v>
       </c>
       <c r="G6" t="n">
-        <v>165015.2569404501</v>
+        <v>163980.4274684817</v>
       </c>
       <c r="H6" t="n">
-        <v>164555.5872691168</v>
+        <v>167592.774587186</v>
       </c>
       <c r="I6" t="n">
-        <v>172458.8449786915</v>
+        <v>170368.0238372546</v>
       </c>
       <c r="J6" t="n">
-        <v>172858.5480620423</v>
+        <v>172858.5480620422</v>
       </c>
       <c r="K6" t="n">
         <v>172858.5480620423</v>
       </c>
       <c r="L6" t="n">
-        <v>172858.5480620422</v>
+        <v>172858.5480620423</v>
       </c>
       <c r="M6" t="n">
-        <v>169724.630446954</v>
+        <v>166989.2538140154</v>
       </c>
       <c r="N6" t="n">
-        <v>169724.6304469539</v>
+        <v>171941.7377501483</v>
       </c>
       <c r="O6" t="n">
-        <v>167797.542886692</v>
+        <v>169433.1435510541</v>
       </c>
       <c r="P6" t="n">
-        <v>163734.3831348678</v>
+        <v>167481.1302104138</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26740,13 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>313.4242763455297</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
-        <v>350.6510585135856</v>
+        <v>322.7795337849417</v>
       </c>
       <c r="E3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="F3" t="n">
         <v>464.6395681836371</v>
@@ -26765,10 +26767,10 @@
         <v>464.6395681836371</v>
       </c>
       <c r="L3" t="n">
+        <v>464.6395681836371</v>
+      </c>
+      <c r="M3" t="n">
         <v>464.639568183637</v>
-      </c>
-      <c r="M3" t="n">
-        <v>464.6395681836371</v>
       </c>
       <c r="N3" t="n">
         <v>464.6395681836371</v>
@@ -26802,10 +26804,10 @@
         <v>29.23886660620531</v>
       </c>
       <c r="G4" t="n">
-        <v>45.35754004913036</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="H4" t="n">
-        <v>75.70608231735568</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="I4" t="n">
         <v>77.20917189415033</v>
@@ -26820,16 +26822,16 @@
         <v>77.20917189415033</v>
       </c>
       <c r="M4" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N4" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O4" t="n">
-        <v>31.85163184501997</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="P4" t="n">
-        <v>1.50308957679465</v>
+        <v>29.23886660620531</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26962,13 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>1.751843707490896</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>37.22678216805591</v>
+        <v>11.10710114690294</v>
       </c>
       <c r="E3" t="n">
-        <v>113.9885096700515</v>
+        <v>141.8600343986953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>22.48597729051821</v>
+      </c>
+      <c r="H4" t="n">
         <v>16.11867344292506</v>
       </c>
-      <c r="H4" t="n">
-        <v>30.34854226822532</v>
-      </c>
       <c r="I4" t="n">
-        <v>1.50308957679465</v>
+        <v>9.365654554501759</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>19.87321205170355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>22.48597729051821</v>
+      </c>
+      <c r="P4" t="n">
         <v>16.11867344292506</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30.34854226822532</v>
       </c>
     </row>
   </sheetData>
@@ -27406,7 +27408,7 @@
         <v>78.22308851520961</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766585</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27561,7 +27563,7 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505841</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L4" t="n">
         <v>71.46654840866277</v>
@@ -27570,13 +27572,13 @@
         <v>68.66533643318368</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516951</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O4" t="n">
         <v>80.66114959698193</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028561</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q4" t="n">
         <v>157.5243583765053</v>
@@ -27631,19 +27633,19 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>351.1924833700949</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I5" t="n">
-        <v>259.0541132181538</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J5" t="n">
-        <v>113.8738373371721</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K5" t="n">
-        <v>77.32724494131318</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L5" t="n">
-        <v>37.37947519833978</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27652,25 +27654,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>25.2152522372584</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P5" t="n">
-        <v>73.3214355088727</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.8546630267587</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R5" t="n">
-        <v>219.059287628947</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S5" t="n">
-        <v>238.677566338876</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9987611016488</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U5" t="n">
-        <v>248.8008057694731</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -27707,19 +27709,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0950380119021</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H6" t="n">
-        <v>138.5236796360653</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I6" t="n">
-        <v>119.7076490450244</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J6" t="n">
-        <v>89.02322455904984</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K6" t="n">
-        <v>23.97042983698081</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27737,19 +27739,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.04758810306782</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R6" t="n">
-        <v>159.3637153402471</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S6" t="n">
-        <v>209.5097923805736</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T6" t="n">
-        <v>230.418039906791</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6548223438505</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -27786,49 +27788,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.3015109649467</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H7" t="n">
-        <v>168.1744671028003</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I7" t="n">
-        <v>169.7543009664384</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0263549285992</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K7" t="n">
-        <v>95.26355587896444</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L7" t="n">
-        <v>70.99688198255942</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M7" t="n">
-        <v>68.17013903894984</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N7" t="n">
-        <v>55.57781643814995</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O7" t="n">
-        <v>80.21463048281689</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P7" t="n">
-        <v>97.96817859955679</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q7" t="n">
-        <v>157.2598299766742</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R7" t="n">
-        <v>224.0718430653901</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S7" t="n">
-        <v>244.8618896927671</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T7" t="n">
-        <v>218.373464649869</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2232415995381</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -27868,19 +27870,19 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>349.6598249464623</v>
+        <v>350.8073194293858</v>
       </c>
       <c r="I8" t="n">
-        <v>253.2845231898766</v>
+        <v>257.6041893490767</v>
       </c>
       <c r="J8" t="n">
-        <v>101.17202184758</v>
+        <v>110.6818140965759</v>
       </c>
       <c r="K8" t="n">
-        <v>58.29051612840928</v>
+        <v>72.54322955032379</v>
       </c>
       <c r="L8" t="n">
-        <v>13.76272976322224</v>
+        <v>31.44448107423921</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27889,25 +27891,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>18.8785461793901</v>
       </c>
       <c r="P8" t="n">
-        <v>51.80080109985099</v>
+        <v>67.91320349335811</v>
       </c>
       <c r="Q8" t="n">
-        <v>117.6935628343942</v>
+        <v>129.7933060144559</v>
       </c>
       <c r="R8" t="n">
-        <v>209.6584962505987</v>
+        <v>216.6968265631039</v>
       </c>
       <c r="S8" t="n">
-        <v>235.2672937814706</v>
+        <v>237.8205495392756</v>
       </c>
       <c r="T8" t="n">
-        <v>219.3436445631938</v>
+        <v>219.8341273752527</v>
       </c>
       <c r="U8" t="n">
-        <v>248.788833337017</v>
+        <v>248.7977970434624</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -27944,19 +27946,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0749153826928</v>
       </c>
       <c r="H9" t="n">
-        <v>137.7503459159327</v>
+        <v>138.3293374013334</v>
       </c>
       <c r="I9" t="n">
-        <v>116.9507599882392</v>
+        <v>119.014830451634</v>
       </c>
       <c r="J9" t="n">
-        <v>81.45811026959613</v>
+        <v>87.12207738449912</v>
       </c>
       <c r="K9" t="n">
-        <v>11.04044456262878</v>
+        <v>20.72106650540691</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27974,19 +27976,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.82637802552914</v>
+        <v>61.47895213592962</v>
       </c>
       <c r="R9" t="n">
-        <v>154.3921839405207</v>
+        <v>158.1143471863573</v>
       </c>
       <c r="S9" t="n">
-        <v>208.0224770741423</v>
+        <v>209.1360233687254</v>
       </c>
       <c r="T9" t="n">
-        <v>230.0952907293151</v>
+        <v>230.3369315899342</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6534984866657</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -28023,49 +28025,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.2343807020206</v>
+        <v>169.2846408285805</v>
       </c>
       <c r="H10" t="n">
-        <v>167.5776180378764</v>
+        <v>168.0244762540176</v>
       </c>
       <c r="I10" t="n">
-        <v>167.7355108777182</v>
+        <v>169.2469699564454</v>
       </c>
       <c r="J10" t="n">
-        <v>132.2802453397308</v>
+        <v>135.8336362875122</v>
       </c>
       <c r="K10" t="n">
-        <v>87.46423987719797</v>
+        <v>93.30355276296957</v>
       </c>
       <c r="L10" t="n">
-        <v>61.01644271081537</v>
+        <v>68.48875279954065</v>
       </c>
       <c r="M10" t="n">
-        <v>57.6471651877402</v>
+        <v>65.52566848111734</v>
       </c>
       <c r="N10" t="n">
-        <v>45.30505538511903</v>
+        <v>52.9962254795004</v>
       </c>
       <c r="O10" t="n">
-        <v>70.72607295578518</v>
+        <v>77.8301133898992</v>
       </c>
       <c r="P10" t="n">
-        <v>89.84907843621555</v>
+        <v>95.92781228850863</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.6385858692977</v>
+        <v>155.847186103323</v>
       </c>
       <c r="R10" t="n">
-        <v>221.05342233419</v>
+        <v>223.3133003884174</v>
       </c>
       <c r="S10" t="n">
-        <v>243.6919922925021</v>
+        <v>244.5678892253678</v>
       </c>
       <c r="T10" t="n">
-        <v>218.0866353446397</v>
+        <v>218.3013831581227</v>
       </c>
       <c r="U10" t="n">
-        <v>291.219579948833</v>
+        <v>291.2223214102817</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -31078,7 +31080,7 @@
         <v>28.5517007386505</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177949</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U2" t="n">
         <v>0.1002363602453993</v>
@@ -31121,7 +31123,7 @@
         <v>0.6703897607686119</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160016</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I3" t="n">
         <v>23.08140185102458</v>
@@ -31136,7 +31138,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877312</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N3" t="n">
         <v>174.3572036132365</v>
@@ -31206,10 +31208,10 @@
         <v>16.9018427404366</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927915</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973993</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L4" t="n">
         <v>83.55886825184406</v>
@@ -31218,13 +31220,13 @@
         <v>88.10111075373283</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567396</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O4" t="n">
         <v>79.44070463370868</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994208</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q4" t="n">
         <v>47.06253732834386</v>
@@ -31233,7 +31235,7 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460987</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T4" t="n">
         <v>2.40141054655538</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.259997090836299</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H5" t="n">
-        <v>12.90394520652725</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I5" t="n">
-        <v>48.57603784446648</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J5" t="n">
-        <v>106.9406780883674</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K5" t="n">
-        <v>160.276354943468</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L5" t="n">
-        <v>198.8369909121495</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M5" t="n">
-        <v>221.2444641763095</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N5" t="n">
-        <v>224.8244309106481</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O5" t="n">
-        <v>212.2953348386447</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P5" t="n">
-        <v>181.1891566586235</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.0655108430485</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R5" t="n">
-        <v>79.14829225724576</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S5" t="n">
-        <v>28.7121837074322</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T5" t="n">
-        <v>5.515637265135902</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1007997672669039</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6741578774224601</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H6" t="n">
-        <v>6.510945816159023</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I6" t="n">
-        <v>23.21113744634347</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J6" t="n">
-        <v>63.69313525244392</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K6" t="n">
-        <v>108.8617130397488</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L6" t="n">
-        <v>146.3780075517495</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M6" t="n">
-        <v>170.8162306083136</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N6" t="n">
-        <v>175.3372279529582</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O6" t="n">
-        <v>160.3993086690184</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P6" t="n">
-        <v>128.7345862597328</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q6" t="n">
-        <v>86.05566168641789</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R6" t="n">
-        <v>41.85692505610679</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S6" t="n">
-        <v>12.52218688984262</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T6" t="n">
-        <v>2.717329339259827</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04435249193568818</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5651913180001354</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H7" t="n">
-        <v>5.025064627310298</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I7" t="n">
-        <v>16.99684436313135</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J7" t="n">
-        <v>39.95902618260957</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K7" t="n">
-        <v>65.6649549458339</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L7" t="n">
-        <v>84.02853467794742</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M7" t="n">
-        <v>88.59630814796667</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N7" t="n">
-        <v>86.48968596269351</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O7" t="n">
-        <v>79.88722374787372</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P7" t="n">
-        <v>68.3573208606709</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.32706572817498</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R7" t="n">
-        <v>25.41305689844244</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S7" t="n">
-        <v>9.849743241875084</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T7" t="n">
-        <v>2.414908358727851</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03082861734546197</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.409652496537027</v>
+        <v>1.297606165969614</v>
       </c>
       <c r="H8" t="n">
-        <v>14.43660363015983</v>
+        <v>13.28910914723631</v>
       </c>
       <c r="I8" t="n">
-        <v>54.34562787274377</v>
+        <v>50.02596171354359</v>
       </c>
       <c r="J8" t="n">
-        <v>119.6424935779596</v>
+        <v>110.1327013289636</v>
       </c>
       <c r="K8" t="n">
-        <v>179.3130837563719</v>
+        <v>165.0603703344574</v>
       </c>
       <c r="L8" t="n">
-        <v>222.453736347267</v>
+        <v>204.77198503625</v>
       </c>
       <c r="M8" t="n">
-        <v>247.5226439325573</v>
+        <v>227.8482886903122</v>
       </c>
       <c r="N8" t="n">
-        <v>251.5278190883432</v>
+        <v>231.5351122093734</v>
       </c>
       <c r="O8" t="n">
-        <v>237.5105870759031</v>
+        <v>218.632040896513</v>
       </c>
       <c r="P8" t="n">
-        <v>202.7097910676452</v>
+        <v>186.5973886741381</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.2266110354129</v>
+        <v>140.1268678553513</v>
       </c>
       <c r="R8" t="n">
-        <v>88.54908363559407</v>
+        <v>81.51075332308885</v>
       </c>
       <c r="S8" t="n">
-        <v>32.12245626483752</v>
+        <v>29.56920050703261</v>
       </c>
       <c r="T8" t="n">
-        <v>6.170753803590837</v>
+        <v>5.680270991531988</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1038084932775691</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7542305786895993</v>
+        <v>0.6942805066317616</v>
       </c>
       <c r="H9" t="n">
-        <v>7.284279536291657</v>
+        <v>6.705288050890961</v>
       </c>
       <c r="I9" t="n">
-        <v>25.96802650312875</v>
+        <v>23.9039560397339</v>
       </c>
       <c r="J9" t="n">
-        <v>71.25824954189763</v>
+        <v>65.59428242699464</v>
       </c>
       <c r="K9" t="n">
-        <v>121.7916983141008</v>
+        <v>112.1110763713227</v>
       </c>
       <c r="L9" t="n">
-        <v>163.7639684124062</v>
+        <v>150.7471775473919</v>
       </c>
       <c r="M9" t="n">
-        <v>191.1048268899041</v>
+        <v>175.9148459127932</v>
       </c>
       <c r="N9" t="n">
-        <v>192.087253921875</v>
+        <v>180.570788433144</v>
       </c>
       <c r="O9" t="n">
-        <v>179.4506412376083</v>
+        <v>165.186994049356</v>
       </c>
       <c r="P9" t="n">
-        <v>144.0249602411745</v>
+        <v>132.5771258672528</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.27687176395658</v>
+        <v>88.6242976535561</v>
       </c>
       <c r="R9" t="n">
-        <v>46.82845645583321</v>
+        <v>43.10629320999658</v>
       </c>
       <c r="S9" t="n">
-        <v>14.00950219627391</v>
+        <v>12.89595590169082</v>
       </c>
       <c r="T9" t="n">
-        <v>3.040078516735708</v>
+        <v>2.798437656116616</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.04567634912051064</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.5820614543662883</v>
       </c>
       <c r="H10" t="n">
-        <v>5.621913692234212</v>
+        <v>5.175055476093004</v>
       </c>
       <c r="I10" t="n">
-        <v>19.0156344518515</v>
+        <v>17.50417537312439</v>
       </c>
       <c r="J10" t="n">
-        <v>44.70513577147795</v>
+        <v>41.15174482369658</v>
       </c>
       <c r="K10" t="n">
-        <v>73.46427094760037</v>
+        <v>67.62495806182876</v>
       </c>
       <c r="L10" t="n">
-        <v>94.00897394969147</v>
+        <v>86.53666386096619</v>
       </c>
       <c r="M10" t="n">
-        <v>99.11928199917631</v>
+        <v>91.24077870579917</v>
       </c>
       <c r="N10" t="n">
-        <v>96.76244701572443</v>
+        <v>89.07127692134307</v>
       </c>
       <c r="O10" t="n">
-        <v>89.37578127490542</v>
+        <v>82.27174084079141</v>
       </c>
       <c r="P10" t="n">
-        <v>76.47642102401214</v>
+        <v>70.39768717171906</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.94830983555143</v>
+        <v>48.7397096015262</v>
       </c>
       <c r="R10" t="n">
-        <v>28.43147762964252</v>
+        <v>26.1715995754151</v>
       </c>
       <c r="S10" t="n">
-        <v>11.01964064214005</v>
+        <v>10.14374370927431</v>
       </c>
       <c r="T10" t="n">
-        <v>2.701737663957134</v>
+        <v>2.48698985047414</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03174880660179758</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31755,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H11" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I11" t="n">
         <v>72.01212845185798</v>
@@ -31765,22 +31767,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L11" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M11" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N11" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O11" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P11" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R11" t="n">
         <v>117.334332763479</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H12" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I12" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J12" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K12" t="n">
         <v>161.3833488850657</v>
@@ -31862,16 +31864,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R12" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S12" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T12" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,16 +31913,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H13" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I13" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J13" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K13" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L13" t="n">
         <v>124.569106525823</v>
@@ -31938,10 +31940,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R13" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S13" t="n">
         <v>14.60186970832839</v>
@@ -31950,7 +31952,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32324,7 +32326,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N18" t="n">
-        <v>237.4447939710053</v>
+        <v>243.8120978185985</v>
       </c>
       <c r="O18" t="n">
         <v>237.7858741062053</v>
@@ -33427,16 +33429,16 @@
         <v>294.7682760045802</v>
       </c>
       <c r="M32" t="n">
-        <v>327.9865028214072</v>
+        <v>327.9865028214073</v>
       </c>
       <c r="N32" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O32" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P32" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q32" t="n">
         <v>201.7119443967467</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H33" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I33" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J33" t="n">
         <v>94.42265036078989</v>
@@ -33521,13 +33523,13 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R33" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S33" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T33" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U33" t="n">
         <v>0.06575088229013736</v>
@@ -33567,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8378746311508207</v>
+        <v>0.8378746311508208</v>
       </c>
       <c r="H34" t="n">
         <v>7.44946717514094</v>
@@ -33576,7 +33578,7 @@
         <v>25.1971752713356</v>
       </c>
       <c r="J34" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K34" t="n">
         <v>97.34579805552262</v>
@@ -33597,7 +33599,7 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R34" t="n">
         <v>37.67389023338145</v>
@@ -33649,7 +33651,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H35" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I35" t="n">
         <v>72.01212845185798</v>
@@ -33661,22 +33663,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L35" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M35" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N35" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O35" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P35" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R35" t="n">
         <v>117.334332763479</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H36" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I36" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J36" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K36" t="n">
         <v>161.3833488850657</v>
@@ -33746,7 +33748,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N36" t="n">
-        <v>240.05755920982</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O36" t="n">
         <v>237.7858741062053</v>
@@ -33758,16 +33760,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R36" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S36" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T36" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,16 +33809,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H37" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I37" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J37" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K37" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L37" t="n">
         <v>124.569106525823</v>
@@ -33834,10 +33836,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R37" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S37" t="n">
         <v>14.60186970832839</v>
@@ -33846,7 +33848,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33983,7 +33985,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N39" t="n">
-        <v>240.05755920982</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O39" t="n">
         <v>237.7858741062053</v>
@@ -34217,10 +34219,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M42" t="n">
-        <v>239.7226564559718</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N42" t="n">
-        <v>223.9388857668949</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O42" t="n">
         <v>237.7858741062053</v>
@@ -34451,16 +34453,16 @@
         <v>161.3833488850657</v>
       </c>
       <c r="L45" t="n">
-        <v>204.1388700048606</v>
+        <v>216.9998285182166</v>
       </c>
       <c r="M45" t="n">
-        <v>209.3741141877465</v>
+        <v>237.1098912171571</v>
       </c>
       <c r="N45" t="n">
-        <v>193.5296126066779</v>
+        <v>221.3261205280803</v>
       </c>
       <c r="O45" t="n">
-        <v>210.0500970767946</v>
+        <v>237.7858741062053</v>
       </c>
       <c r="P45" t="n">
         <v>190.8441275431999</v>
@@ -35413,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>13.96205744399715</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="M11" t="n">
         <v>29.23886660620531</v>
@@ -35422,10 +35424,10 @@
         <v>29.23886660620531</v>
       </c>
       <c r="O11" t="n">
-        <v>29.23886660620531</v>
+        <v>13.96205744399721</v>
       </c>
       <c r="P11" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>13.69345016832928</v>
       </c>
       <c r="L12" t="n">
-        <v>28.05749825847984</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M12" t="n">
         <v>29.23886660620531</v>
@@ -35887,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>45.35754004913036</v>
+        <v>35.53951039954495</v>
       </c>
       <c r="M17" t="n">
-        <v>45.35754004913036</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="N17" t="n">
-        <v>29.42947135387475</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="O17" t="n">
-        <v>45.35754004913036</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="P17" t="n">
         <v>14.09544081448269</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>45.35754004913036</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="M18" t="n">
-        <v>45.35754004913036</v>
+        <v>49.63495121402763</v>
       </c>
       <c r="N18" t="n">
-        <v>45.35754004913036</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="O18" t="n">
-        <v>43.52491216835742</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36124,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>58.55180989409092</v>
+        <v>51.00692430942247</v>
       </c>
       <c r="M20" t="n">
-        <v>75.70608231735568</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N20" t="n">
-        <v>75.70608231735568</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O20" t="n">
-        <v>75.70608231735568</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P20" t="n">
         <v>14.09544081448269</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>51.95860967794457</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M21" t="n">
-        <v>75.70608231735568</v>
+        <v>65.10236512390519</v>
       </c>
       <c r="N21" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O21" t="n">
-        <v>75.70608231735568</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>54.90405793954217</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="M24" t="n">
-        <v>77.20917189415033</v>
+        <v>54.21639734167306</v>
       </c>
       <c r="N24" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O24" t="n">
+        <v>29.23886660620531</v>
+      </c>
+      <c r="P24" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>57.51682317835684</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="M27" t="n">
         <v>45.35754004913036</v>
@@ -36686,7 +36688,7 @@
         <v>67.84351733964857</v>
       </c>
       <c r="O27" t="n">
-        <v>29.23886660620531</v>
+        <v>38.09772389874799</v>
       </c>
       <c r="P27" t="n">
         <v>77.20917189415033</v>
@@ -36917,16 +36919,16 @@
         <v>77.20917189415033</v>
       </c>
       <c r="M30" t="n">
-        <v>54.21639734167306</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="N30" t="n">
-        <v>67.84351733964857</v>
+        <v>74.08960939337661</v>
       </c>
       <c r="O30" t="n">
-        <v>29.23886660620531</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="P30" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>77.20917189415033</v>
       </c>
       <c r="O32" t="n">
-        <v>77.20917189415027</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="P32" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L33" t="n">
         <v>77.20917189415033</v>
       </c>
       <c r="M33" t="n">
-        <v>45.35754004913036</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="N33" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O33" t="n">
-        <v>38.09772389874799</v>
+        <v>54.90405793954217</v>
       </c>
       <c r="P33" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37309,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>31.93667032041405</v>
+        <v>58.55180989409087</v>
       </c>
       <c r="M35" t="n">
-        <v>47.97030528794502</v>
+        <v>60.29863175498024</v>
       </c>
       <c r="N35" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O35" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P35" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>14.36404809015059</v>
+        <v>65.10236512390519</v>
       </c>
       <c r="M36" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N36" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O36" t="n">
-        <v>29.23886660620531</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P36" t="n">
-        <v>21.8482957181497</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.97030528794502</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M38" t="n">
-        <v>31.93667032041406</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N38" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O38" t="n">
-        <v>47.97030528794502</v>
+        <v>60.29863175498013</v>
       </c>
       <c r="P38" t="n">
         <v>14.09544081448269</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L39" t="n">
-        <v>46.03211113489673</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M39" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N39" t="n">
-        <v>47.97030528794502</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O39" t="n">
-        <v>47.97030528794502</v>
+        <v>36.55115911556899</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>16.46925641053646</v>
+        <v>29.42947135387474</v>
       </c>
       <c r="M41" t="n">
-        <v>31.85163184501997</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N41" t="n">
-        <v>31.85163184501997</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O41" t="n">
-        <v>31.85163184501997</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="P41" t="n">
         <v>14.09544081448269</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>14.36404809015059</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M42" t="n">
-        <v>31.85163184501997</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N42" t="n">
-        <v>31.85163184501997</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O42" t="n">
-        <v>29.23886660620531</v>
+        <v>43.52491216835742</v>
       </c>
       <c r="P42" t="n">
-        <v>18.81341437368323</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>13.96205744399715</v>
       </c>
       <c r="M44" t="n">
-        <v>1.442358684802947</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N44" t="n">
-        <v>1.50308957679465</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O44" t="n">
-        <v>1.50308957679465</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P44" t="n">
-        <v>1.50308957679465</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>13.69345016832925</v>
       </c>
       <c r="L45" t="n">
-        <v>1.50308957679465</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M45" t="n">
-        <v>1.50308957679465</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N45" t="n">
-        <v>1.442358684802947</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O45" t="n">
-        <v>1.50308957679465</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>860189.3251183021</v>
+        <v>774022.5559130296</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1021463.223122144</v>
+        <v>969534.7635457561</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18235608.67204788</v>
+        <v>18185527.8770537</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6917832.344635936</v>
+        <v>6940908.487899633</v>
       </c>
     </row>
     <row r="11">
@@ -1414,28 +1414,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.23886660620531</v>
+        <v>35.07279172602428</v>
       </c>
       <c r="R11" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>25.75359370674562</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>12.54378714801568</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1493,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R12" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="S12" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="T12" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>25.75359370674562</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>35.07279172602428</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="R14" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>25.75359370674562</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.75359370674562</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>35.07279172602428</v>
       </c>
     </row>
     <row r="16">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>45.55924250423406</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.72484389672351</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>23.03023792622546</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>37.22756549475388</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,67 +2089,67 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>67.84351733964857</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>59.75657007276244</v>
       </c>
-      <c r="F20" t="n">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>67.84351733964857</v>
-      </c>
-      <c r="G20" t="n">
-        <v>67.84351733964857</v>
-      </c>
-      <c r="H20" t="n">
-        <v>67.84351733964857</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>67.84351733964857</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
-        <v>59.75657007276241</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>37.22756549475386</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="S21" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="T21" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2323,70 +2323,70 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>68.2082294730605</v>
+      </c>
+      <c r="R23" t="n">
+        <v>75.59312527848202</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>66.59218285739217</v>
-      </c>
-      <c r="T23" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="U23" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,76 +2396,76 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>22.52900457800858</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
+      <c r="V24" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="U24" t="n">
-        <v>68.00583860436758</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>45.47683402635902</v>
       </c>
     </row>
     <row r="25">
@@ -2554,67 +2554,67 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>66.59218285739217</v>
+      </c>
+      <c r="D26" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="C26" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="V26" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>66.59218285739217</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2645,49 +2645,49 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>45.47683402635902</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>22.52900457800858</v>
+      </c>
+      <c r="R27" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="G27" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>77.20917189415033</v>
       </c>
       <c r="T27" t="n">
-        <v>68.00583860436758</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2797,61 +2797,61 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="F29" t="n">
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="V29" t="n">
         <v>66.59218285739217</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>45.47683402635902</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="W30" t="n">
-        <v>45.47683402635902</v>
       </c>
       <c r="X30" t="n">
         <v>77.20917189415033</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
     </row>
     <row r="31">
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="E32" t="n">
         <v>77.20917189415033</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="G32" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>66.59218285739217</v>
       </c>
       <c r="R32" t="n">
-        <v>66.59218285739217</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>77.20917189415033</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3116,67 +3116,67 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>68.00583860436758</v>
+      </c>
+      <c r="U33" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="V33" t="n">
         <v>77.20917189415033</v>
       </c>
-      <c r="J33" t="n">
-        <v>58.29370945070387</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>9.71212915366371</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,43 +3283,43 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>67.84351733964857</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>59.75657007276244</v>
-      </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,76 +3344,76 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>59.75657007276244</v>
+      </c>
+      <c r="V36" t="n">
         <v>67.84351733964857</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="W36" t="n">
         <v>67.84351733964857</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>59.75657007276244</v>
-      </c>
       <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>67.84351733964857</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>59.75657007276242</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="H38" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>67.84351733964857</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="X38" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,61 +3581,61 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
         <v>67.84351733964857</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>67.84351733964857</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>22.52900457800858</v>
-      </c>
-      <c r="R39" t="n">
-        <v>37.22756549475385</v>
-      </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>59.75657007276244</v>
       </c>
     </row>
     <row r="40">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>45.35754004913036</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="G41" t="n">
-        <v>45.35754004913036</v>
+        <v>35.07279172602428</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>35.07279172602428</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>45.35754004913036</v>
+        <v>39.81924582881956</v>
       </c>
     </row>
     <row r="43">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>35.07279172602428</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>35.07279172602428</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4100,28 +4100,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.224589128737049</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="W45" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="X45" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="C11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="D11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="E11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="F11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="G11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="L11" t="n">
-        <v>31.28558726863968</v>
+        <v>27.05933679734629</v>
       </c>
       <c r="M11" t="n">
-        <v>60.23206520878293</v>
+        <v>66.48039016787766</v>
       </c>
       <c r="N11" t="n">
-        <v>89.17854314892618</v>
+        <v>105.901443538409</v>
       </c>
       <c r="O11" t="n">
-        <v>103.0009800184834</v>
+        <v>145.3224969089404</v>
       </c>
       <c r="P11" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="Q11" t="n">
-        <v>87.42125773168455</v>
+        <v>123.8499209657588</v>
       </c>
       <c r="R11" t="n">
-        <v>57.88704903854787</v>
+        <v>123.8499209657588</v>
       </c>
       <c r="S11" t="n">
-        <v>28.3528403454112</v>
+        <v>123.8499209657588</v>
       </c>
       <c r="T11" t="n">
-        <v>2.339109328496424</v>
+        <v>123.8499209657588</v>
       </c>
       <c r="U11" t="n">
-        <v>2.339109328496424</v>
+        <v>83.6284605326077</v>
       </c>
       <c r="V11" t="n">
-        <v>2.339109328496424</v>
+        <v>83.6284605326077</v>
       </c>
       <c r="W11" t="n">
-        <v>2.339109328496424</v>
+        <v>43.40700009945664</v>
       </c>
       <c r="X11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.339109328496424</v>
+        <v>15.85603173500827</v>
       </c>
       <c r="C12" t="n">
-        <v>2.339109328496424</v>
+        <v>15.85603173500827</v>
       </c>
       <c r="D12" t="n">
-        <v>2.339109328496424</v>
+        <v>15.85603173500827</v>
       </c>
       <c r="E12" t="n">
-        <v>2.339109328496424</v>
+        <v>15.85603173500827</v>
       </c>
       <c r="F12" t="n">
-        <v>2.339109328496424</v>
+        <v>15.85603173500827</v>
       </c>
       <c r="G12" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H12" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I12" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J12" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K12" t="n">
-        <v>15.89562499514241</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="L12" t="n">
-        <v>30.11603260439146</v>
+        <v>42.60659303683693</v>
       </c>
       <c r="M12" t="n">
-        <v>59.06251054453472</v>
+        <v>82.02764640736831</v>
       </c>
       <c r="N12" t="n">
-        <v>88.00898848467797</v>
+        <v>121.4486997778997</v>
       </c>
       <c r="O12" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="P12" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.9554664248212</v>
+        <v>136.5204130344615</v>
       </c>
       <c r="R12" t="n">
-        <v>87.42125773168455</v>
+        <v>96.29895260131042</v>
       </c>
       <c r="S12" t="n">
-        <v>57.88704903854787</v>
+        <v>56.07749216815935</v>
       </c>
       <c r="T12" t="n">
-        <v>28.3528403454112</v>
+        <v>56.07749216815935</v>
       </c>
       <c r="U12" t="n">
-        <v>2.339109328496424</v>
+        <v>15.85603173500827</v>
       </c>
       <c r="V12" t="n">
-        <v>2.339109328496424</v>
+        <v>15.85603173500827</v>
       </c>
       <c r="W12" t="n">
-        <v>2.339109328496424</v>
+        <v>15.85603173500827</v>
       </c>
       <c r="X12" t="n">
-        <v>2.339109328496424</v>
+        <v>15.85603173500827</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.339109328496424</v>
+        <v>15.85603173500827</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="C13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="D13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="E13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="F13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="G13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="L13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="M13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="N13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="O13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="P13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="R13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="S13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="T13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="U13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="V13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="W13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="X13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.339109328496424</v>
+        <v>83.6284605326077</v>
       </c>
       <c r="C14" t="n">
-        <v>2.339109328496424</v>
+        <v>83.6284605326077</v>
       </c>
       <c r="D14" t="n">
-        <v>2.339109328496424</v>
+        <v>43.40700009945664</v>
       </c>
       <c r="E14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="F14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="G14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K14" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="L14" t="n">
-        <v>31.28558726863968</v>
+        <v>42.60659303683693</v>
       </c>
       <c r="M14" t="n">
-        <v>60.23206520878293</v>
+        <v>82.02764640736831</v>
       </c>
       <c r="N14" t="n">
-        <v>89.17854314892618</v>
+        <v>105.901443538409</v>
       </c>
       <c r="O14" t="n">
-        <v>103.0009800184834</v>
+        <v>145.3224969089404</v>
       </c>
       <c r="P14" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.9554664248212</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="R14" t="n">
-        <v>87.42125773168455</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="S14" t="n">
-        <v>57.88704903854787</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="T14" t="n">
-        <v>28.3528403454112</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="U14" t="n">
-        <v>2.339109328496424</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="V14" t="n">
-        <v>2.339109328496424</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="W14" t="n">
-        <v>2.339109328496424</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="X14" t="n">
-        <v>2.339109328496424</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.339109328496424</v>
+        <v>119.0555228821272</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>116.9554664248212</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="C15" t="n">
-        <v>116.9554664248212</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="D15" t="n">
-        <v>116.9554664248212</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="E15" t="n">
-        <v>116.9554664248212</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="F15" t="n">
-        <v>116.9554664248212</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="G15" t="n">
-        <v>87.42125773168455</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H15" t="n">
-        <v>57.88704903854787</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I15" t="n">
-        <v>28.3528403454112</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J15" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K15" t="n">
-        <v>2.339109328496424</v>
+        <v>31.45123361455838</v>
       </c>
       <c r="L15" t="n">
-        <v>30.11603260439146</v>
+        <v>45.67164122380747</v>
       </c>
       <c r="M15" t="n">
-        <v>59.06251054453472</v>
+        <v>85.09269459433884</v>
       </c>
       <c r="N15" t="n">
-        <v>88.00898848467797</v>
+        <v>124.5137479648702</v>
       </c>
       <c r="O15" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="P15" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="R15" t="n">
-        <v>116.9554664248212</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="S15" t="n">
-        <v>116.9554664248212</v>
+        <v>78.83406244897611</v>
       </c>
       <c r="T15" t="n">
-        <v>116.9554664248212</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="U15" t="n">
-        <v>116.9554664248212</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="V15" t="n">
-        <v>116.9554664248212</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="W15" t="n">
-        <v>116.9554664248212</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="X15" t="n">
-        <v>116.9554664248212</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="Y15" t="n">
-        <v>116.9554664248212</v>
+        <v>3.185539666305565</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="C16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="D16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="E16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="F16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="G16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="L16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="M16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="N16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="O16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="P16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="R16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="S16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="T16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="U16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="V16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="W16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="X16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>206.8993755868941</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="C17" t="n">
-        <v>206.8993755868941</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D17" t="n">
-        <v>206.8993755868941</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E17" t="n">
-        <v>206.8993755868941</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F17" t="n">
-        <v>154.6520585194966</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G17" t="n">
-        <v>102.4047414520991</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H17" t="n">
-        <v>50.15742438470159</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I17" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J17" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K17" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L17" t="n">
-        <v>39.32210280728739</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M17" t="n">
-        <v>90.52969826504366</v>
+        <v>130.558855348574</v>
       </c>
       <c r="N17" t="n">
-        <v>141.7372937227999</v>
+        <v>197.7239375148261</v>
       </c>
       <c r="O17" t="n">
-        <v>192.9448891805562</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T17" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U17" t="n">
-        <v>206.8993755868941</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="V17" t="n">
-        <v>206.8993755868941</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="W17" t="n">
-        <v>206.8993755868941</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="X17" t="n">
-        <v>206.8993755868941</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="Y17" t="n">
-        <v>206.8993755868941</v>
+        <v>65.78765317784099</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160.8799387139304</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="C18" t="n">
-        <v>160.8799387139304</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="D18" t="n">
-        <v>160.8799387139304</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E18" t="n">
-        <v>160.8799387139304</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F18" t="n">
-        <v>160.8799387139304</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G18" t="n">
-        <v>160.8799387139304</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H18" t="n">
-        <v>108.6326216465329</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I18" t="n">
-        <v>56.38530457913537</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J18" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K18" t="n">
-        <v>4.137987511737881</v>
+        <v>33.6931753354247</v>
       </c>
       <c r="L18" t="n">
-        <v>55.34558296949416</v>
+        <v>100.8582575016768</v>
       </c>
       <c r="M18" t="n">
-        <v>104.4841846713815</v>
+        <v>145.7622221503159</v>
       </c>
       <c r="N18" t="n">
-        <v>155.6917801291378</v>
+        <v>212.927304316568</v>
       </c>
       <c r="O18" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P18" t="n">
-        <v>206.8993755868941</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1428053060773</v>
+        <v>248.6174990777775</v>
       </c>
       <c r="R18" t="n">
-        <v>160.8799387139304</v>
+        <v>180.0886936841931</v>
       </c>
       <c r="S18" t="n">
-        <v>160.8799387139304</v>
+        <v>180.0886936841931</v>
       </c>
       <c r="T18" t="n">
-        <v>160.8799387139304</v>
+        <v>180.0886936841931</v>
       </c>
       <c r="U18" t="n">
-        <v>160.8799387139304</v>
+        <v>180.0886936841931</v>
       </c>
       <c r="V18" t="n">
-        <v>160.8799387139304</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="W18" t="n">
-        <v>160.8799387139304</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="X18" t="n">
-        <v>160.8799387139304</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="Y18" t="n">
-        <v>160.8799387139304</v>
+        <v>73.9562867807563</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.137987511737881</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C20" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D20" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E20" t="n">
-        <v>211.0138975679251</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F20" t="n">
-        <v>142.4850921743407</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G20" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H20" t="n">
         <v>5.427481387171886</v>
@@ -5758,10 +5758,10 @@
         <v>5.427481387171886</v>
       </c>
       <c r="L20" t="n">
-        <v>55.92433645350013</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M20" t="n">
-        <v>123.0894186197522</v>
+        <v>130.558855348574</v>
       </c>
       <c r="N20" t="n">
         <v>190.2545007860043</v>
@@ -5773,31 +5773,31 @@
         <v>271.3740693585943</v>
       </c>
       <c r="Q20" t="n">
-        <v>271.3740693585943</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="R20" t="n">
-        <v>271.3740693585943</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="S20" t="n">
-        <v>271.3740693585943</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="T20" t="n">
-        <v>271.3740693585943</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="U20" t="n">
-        <v>271.3740693585943</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="V20" t="n">
-        <v>271.3740693585943</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="W20" t="n">
-        <v>271.3740693585943</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="X20" t="n">
-        <v>271.3740693585943</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="Y20" t="n">
-        <v>271.3740693585943</v>
+        <v>73.9562867807563</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>134.3164585714254</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="C21" t="n">
-        <v>134.3164585714254</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="D21" t="n">
-        <v>65.78765317784099</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="E21" t="n">
-        <v>65.78765317784099</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="F21" t="n">
-        <v>65.78765317784099</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="G21" t="n">
-        <v>65.78765317784099</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="H21" t="n">
-        <v>5.427481387171886</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="I21" t="n">
-        <v>5.427481387171886</v>
+        <v>43.03108289702428</v>
       </c>
       <c r="J21" t="n">
         <v>5.427481387171886</v>
@@ -5840,43 +5840,43 @@
         <v>72.59256355342397</v>
       </c>
       <c r="M21" t="n">
-        <v>137.0439050260901</v>
+        <v>117.496528202063</v>
       </c>
       <c r="N21" t="n">
-        <v>204.2089871923422</v>
+        <v>184.6616103683151</v>
       </c>
       <c r="O21" t="n">
-        <v>271.3740693585943</v>
+        <v>251.8266925345672</v>
       </c>
       <c r="P21" t="n">
         <v>271.3740693585943</v>
       </c>
       <c r="Q21" t="n">
-        <v>271.3740693585943</v>
+        <v>248.6174990777775</v>
       </c>
       <c r="R21" t="n">
-        <v>271.3740693585943</v>
+        <v>180.0886936841931</v>
       </c>
       <c r="S21" t="n">
-        <v>202.8452639650098</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="T21" t="n">
-        <v>134.3164585714254</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="U21" t="n">
-        <v>134.3164585714254</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="V21" t="n">
-        <v>134.3164585714254</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="W21" t="n">
-        <v>134.3164585714254</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="X21" t="n">
-        <v>134.3164585714254</v>
+        <v>111.5598882906087</v>
       </c>
       <c r="Y21" t="n">
-        <v>134.3164585714254</v>
+        <v>111.5598882906087</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y22" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>84.1657962708758</v>
       </c>
       <c r="D23" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E23" t="n">
         <v>6.176733751532026</v>
@@ -6010,28 +6010,28 @@
         <v>307.4087524786464</v>
       </c>
       <c r="Q23" t="n">
-        <v>307.4087524786464</v>
+        <v>238.5115509907065</v>
       </c>
       <c r="R23" t="n">
-        <v>307.4087524786464</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="S23" t="n">
-        <v>240.1439213095634</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="T23" t="n">
         <v>162.1548587902196</v>
       </c>
       <c r="U23" t="n">
-        <v>84.1657962708758</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="V23" t="n">
-        <v>84.1657962708758</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="W23" t="n">
-        <v>84.1657962708758</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="X23" t="n">
-        <v>84.1657962708758</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="Y23" t="n">
         <v>84.1657962708758</v>
@@ -6071,10 +6071,10 @@
         <v>6.176733751532026</v>
       </c>
       <c r="K24" t="n">
-        <v>6.176733751532026</v>
+        <v>34.44242769978484</v>
       </c>
       <c r="L24" t="n">
-        <v>82.61381392674085</v>
+        <v>59.85096711978835</v>
       </c>
       <c r="M24" t="n">
         <v>136.2880472949972</v>
@@ -6089,31 +6089,31 @@
         <v>308.8366875766013</v>
       </c>
       <c r="Q24" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="R24" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="S24" t="n">
-        <v>230.8476250572575</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="T24" t="n">
-        <v>152.8585625379138</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="U24" t="n">
-        <v>84.1657962708758</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="V24" t="n">
-        <v>84.1657962708758</v>
+        <v>130.101992257097</v>
       </c>
       <c r="W24" t="n">
-        <v>84.1657962708758</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="X24" t="n">
-        <v>84.1657962708758</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="Y24" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="M25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="N25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="O25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="P25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Q25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="R25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="S25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="T25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="U25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="V25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y25" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162.1548587902196</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="C26" t="n">
         <v>84.1657962708758</v>
       </c>
       <c r="D26" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E26" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F26" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G26" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H26" t="n">
         <v>6.176733751532026</v>
@@ -6247,31 +6247,31 @@
         <v>307.4087524786464</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1439213095634</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="R26" t="n">
-        <v>240.1439213095634</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="S26" t="n">
-        <v>240.1439213095634</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="T26" t="n">
-        <v>240.1439213095634</v>
+        <v>307.4087524786464</v>
       </c>
       <c r="U26" t="n">
-        <v>240.1439213095634</v>
+        <v>229.4196899593026</v>
       </c>
       <c r="V26" t="n">
-        <v>240.1439213095634</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="W26" t="n">
-        <v>240.1439213095634</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="X26" t="n">
-        <v>240.1439213095634</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="Y26" t="n">
-        <v>240.1439213095634</v>
+        <v>151.4306274399588</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>162.1548587902196</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="C27" t="n">
-        <v>162.1548587902196</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="D27" t="n">
-        <v>162.1548587902196</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="E27" t="n">
-        <v>162.1548587902196</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="F27" t="n">
-        <v>84.1657962708758</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="G27" t="n">
         <v>6.176733751532026</v>
@@ -6308,49 +6308,49 @@
         <v>6.176733751532026</v>
       </c>
       <c r="K27" t="n">
-        <v>6.176733751532026</v>
+        <v>34.44242769978484</v>
       </c>
       <c r="L27" t="n">
-        <v>82.61381392674085</v>
+        <v>110.8795078749937</v>
       </c>
       <c r="M27" t="n">
-        <v>127.5177785753799</v>
+        <v>155.7834725236327</v>
       </c>
       <c r="N27" t="n">
-        <v>194.682860741632</v>
+        <v>222.9485546898848</v>
       </c>
       <c r="O27" t="n">
-        <v>232.3996074013925</v>
+        <v>251.8950326300281</v>
       </c>
       <c r="P27" t="n">
         <v>308.8366875766013</v>
       </c>
       <c r="Q27" t="n">
-        <v>308.8366875766013</v>
+        <v>286.0801172957846</v>
       </c>
       <c r="R27" t="n">
-        <v>308.8366875766013</v>
+        <v>208.0910547764408</v>
       </c>
       <c r="S27" t="n">
-        <v>230.8476250572575</v>
+        <v>130.101992257097</v>
       </c>
       <c r="T27" t="n">
-        <v>162.1548587902196</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="U27" t="n">
-        <v>162.1548587902196</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="V27" t="n">
-        <v>162.1548587902196</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="W27" t="n">
-        <v>162.1548587902196</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="X27" t="n">
-        <v>162.1548587902196</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="Y27" t="n">
-        <v>162.1548587902196</v>
+        <v>52.11292973775326</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="M28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="N28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="O28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="P28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Q28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="R28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="S28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="T28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="U28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="V28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y28" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>307.4087524786464</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="C29" t="n">
-        <v>307.4087524786464</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="D29" t="n">
-        <v>229.4196899593026</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="E29" t="n">
-        <v>151.4306274399588</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="F29" t="n">
-        <v>73.44156492061504</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="G29" t="n">
-        <v>73.44156492061504</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H29" t="n">
         <v>6.176733751532026</v>
@@ -6490,25 +6490,25 @@
         <v>307.4087524786464</v>
       </c>
       <c r="S29" t="n">
-        <v>307.4087524786464</v>
+        <v>229.4196899593026</v>
       </c>
       <c r="T29" t="n">
-        <v>307.4087524786464</v>
+        <v>229.4196899593026</v>
       </c>
       <c r="U29" t="n">
-        <v>307.4087524786464</v>
+        <v>151.4306274399588</v>
       </c>
       <c r="V29" t="n">
-        <v>307.4087524786464</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="W29" t="n">
-        <v>307.4087524786464</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="X29" t="n">
-        <v>307.4087524786464</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="Y29" t="n">
-        <v>307.4087524786464</v>
+        <v>84.1657962708758</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84.1657962708758</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="C30" t="n">
-        <v>84.1657962708758</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="D30" t="n">
-        <v>84.1657962708758</v>
+        <v>52.11292973775326</v>
       </c>
       <c r="E30" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F30" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G30" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H30" t="n">
         <v>6.176733751532026</v>
@@ -6545,19 +6545,19 @@
         <v>6.176733751532026</v>
       </c>
       <c r="K30" t="n">
-        <v>6.176733751532026</v>
+        <v>34.44242769978484</v>
       </c>
       <c r="L30" t="n">
-        <v>82.61381392674085</v>
+        <v>91.38408264635811</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0508941019497</v>
+        <v>136.2880472949972</v>
       </c>
       <c r="N30" t="n">
+        <v>203.4531294612493</v>
+      </c>
+      <c r="O30" t="n">
         <v>232.3996074013925</v>
-      </c>
-      <c r="O30" t="n">
-        <v>308.8366875766013</v>
       </c>
       <c r="P30" t="n">
         <v>308.8366875766013</v>
@@ -6578,16 +6578,16 @@
         <v>286.0801172957846</v>
       </c>
       <c r="V30" t="n">
+        <v>286.0801172957846</v>
+      </c>
+      <c r="W30" t="n">
         <v>208.0910547764408</v>
       </c>
-      <c r="W30" t="n">
-        <v>162.1548587902196</v>
-      </c>
       <c r="X30" t="n">
-        <v>84.1657962708758</v>
+        <v>130.101992257097</v>
       </c>
       <c r="Y30" t="n">
-        <v>84.1657962708758</v>
+        <v>52.11292973775326</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="M31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="N31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="O31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="P31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Q31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="R31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="S31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="T31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="U31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="V31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y31" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.1548587902196</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="C32" t="n">
-        <v>162.1548587902196</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="D32" t="n">
         <v>162.1548587902196</v>
@@ -6688,7 +6688,7 @@
         <v>84.1657962708758</v>
       </c>
       <c r="F32" t="n">
-        <v>84.1657962708758</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G32" t="n">
         <v>6.176733751532026</v>
@@ -6721,31 +6721,31 @@
         <v>307.4087524786464</v>
       </c>
       <c r="Q32" t="n">
-        <v>307.4087524786464</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="R32" t="n">
         <v>240.1439213095634</v>
       </c>
       <c r="S32" t="n">
-        <v>162.1548587902196</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="T32" t="n">
-        <v>162.1548587902196</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="U32" t="n">
-        <v>162.1548587902196</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="V32" t="n">
-        <v>162.1548587902196</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="W32" t="n">
-        <v>162.1548587902196</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="X32" t="n">
-        <v>162.1548587902196</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="Y32" t="n">
-        <v>162.1548587902196</v>
+        <v>240.1439213095634</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>221.0373935889104</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C33" t="n">
-        <v>221.0373935889104</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D33" t="n">
-        <v>221.0373935889104</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E33" t="n">
-        <v>143.0483310695666</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F33" t="n">
-        <v>143.0483310695666</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G33" t="n">
-        <v>143.0483310695666</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H33" t="n">
-        <v>143.0483310695666</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I33" t="n">
-        <v>65.05926855022281</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J33" t="n">
         <v>6.176733751532026</v>
       </c>
       <c r="K33" t="n">
-        <v>34.44242769978484</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L33" t="n">
-        <v>110.8795078749937</v>
+        <v>82.61381392674085</v>
       </c>
       <c r="M33" t="n">
-        <v>187.3165880502025</v>
+        <v>159.0508941019497</v>
       </c>
       <c r="N33" t="n">
-        <v>254.4816702164546</v>
+        <v>232.3996074013925</v>
       </c>
       <c r="O33" t="n">
         <v>308.8366875766013</v>
@@ -6809,22 +6809,22 @@
         <v>308.8366875766013</v>
       </c>
       <c r="T33" t="n">
-        <v>299.0264561082541</v>
+        <v>240.1439213095634</v>
       </c>
       <c r="U33" t="n">
-        <v>299.0264561082541</v>
+        <v>162.1548587902196</v>
       </c>
       <c r="V33" t="n">
-        <v>299.0264561082541</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="W33" t="n">
-        <v>299.0264561082541</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="X33" t="n">
-        <v>221.0373935889104</v>
+        <v>84.1657962708758</v>
       </c>
       <c r="Y33" t="n">
-        <v>221.0373935889104</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="C34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="D34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="E34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="F34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="G34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="H34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="I34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="J34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="K34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="L34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="M34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="N34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="O34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="P34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Q34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="R34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="S34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="T34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="U34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="V34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="W34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="X34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
       <c r="Y34" t="n">
-        <v>308.8366875766013</v>
+        <v>6.176733751532026</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>73.9562867807563</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="C35" t="n">
-        <v>73.9562867807563</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="D35" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E35" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F35" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G35" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H35" t="n">
         <v>5.427481387171886</v>
@@ -6943,46 +6943,46 @@
         <v>5.427481387171886</v>
       </c>
       <c r="L35" t="n">
-        <v>63.39377318232184</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M35" t="n">
-        <v>123.0894186197523</v>
+        <v>130.558855348574</v>
       </c>
       <c r="N35" t="n">
-        <v>190.2545007860044</v>
+        <v>190.2545007860043</v>
       </c>
       <c r="O35" t="n">
-        <v>257.4195829522565</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P35" t="n">
         <v>271.3740693585943</v>
       </c>
       <c r="Q35" t="n">
-        <v>211.0138975679251</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="R35" t="n">
-        <v>211.0138975679251</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="S35" t="n">
-        <v>211.0138975679251</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="T35" t="n">
-        <v>211.0138975679251</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="U35" t="n">
-        <v>211.0138975679251</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="V35" t="n">
-        <v>211.0138975679251</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="W35" t="n">
-        <v>142.4850921743407</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="X35" t="n">
-        <v>142.4850921743407</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="Y35" t="n">
-        <v>73.9562867807563</v>
+        <v>65.78765317784099</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C36" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D36" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E36" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F36" t="n">
         <v>5.427481387171886</v>
@@ -7019,16 +7019,16 @@
         <v>5.427481387171886</v>
       </c>
       <c r="K36" t="n">
-        <v>5.427481387171886</v>
+        <v>33.6931753354247</v>
       </c>
       <c r="L36" t="n">
-        <v>69.87882285983801</v>
+        <v>100.8582575016768</v>
       </c>
       <c r="M36" t="n">
-        <v>137.0439050260901</v>
+        <v>145.7622221503159</v>
       </c>
       <c r="N36" t="n">
-        <v>204.2089871923422</v>
+        <v>212.927304316568</v>
       </c>
       <c r="O36" t="n">
         <v>271.3740693585943</v>
@@ -7049,19 +7049,19 @@
         <v>271.3740693585943</v>
       </c>
       <c r="U36" t="n">
-        <v>271.3740693585943</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="V36" t="n">
-        <v>271.3740693585943</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="W36" t="n">
-        <v>211.0138975679251</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="X36" t="n">
-        <v>142.4850921743407</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="Y36" t="n">
-        <v>142.4850921743407</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="37">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>134.3164585714254</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="C38" t="n">
-        <v>73.9562867807563</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="D38" t="n">
-        <v>73.9562867807563</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="E38" t="n">
-        <v>73.9562867807563</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="F38" t="n">
-        <v>73.9562867807563</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="G38" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H38" t="n">
         <v>5.427481387171886</v>
@@ -7180,16 +7180,16 @@
         <v>5.427481387171886</v>
       </c>
       <c r="L38" t="n">
-        <v>63.3937731823219</v>
+        <v>63.39377318232184</v>
       </c>
       <c r="M38" t="n">
-        <v>130.558855348574</v>
+        <v>130.5588553485739</v>
       </c>
       <c r="N38" t="n">
-        <v>197.7239375148261</v>
+        <v>190.2545007860044</v>
       </c>
       <c r="O38" t="n">
-        <v>257.4195829522564</v>
+        <v>257.4195829522565</v>
       </c>
       <c r="P38" t="n">
         <v>271.3740693585943</v>
@@ -7210,16 +7210,16 @@
         <v>202.8452639650098</v>
       </c>
       <c r="V38" t="n">
-        <v>202.8452639650098</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="W38" t="n">
-        <v>202.8452639650098</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="X38" t="n">
-        <v>134.3164585714254</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="Y38" t="n">
-        <v>134.3164585714254</v>
+        <v>65.78765317784099</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>142.4850921743407</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="C39" t="n">
-        <v>142.4850921743407</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D39" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E39" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F39" t="n">
-        <v>73.9562867807563</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G39" t="n">
         <v>5.427481387171886</v>
@@ -7256,16 +7256,16 @@
         <v>5.427481387171886</v>
       </c>
       <c r="K39" t="n">
-        <v>33.6931753354247</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L39" t="n">
-        <v>100.8582575016768</v>
+        <v>72.59256355342397</v>
       </c>
       <c r="M39" t="n">
-        <v>168.0233396679289</v>
+        <v>139.7576457196761</v>
       </c>
       <c r="N39" t="n">
-        <v>235.188421834181</v>
+        <v>206.9227278859282</v>
       </c>
       <c r="O39" t="n">
         <v>271.3740693585943</v>
@@ -7274,28 +7274,28 @@
         <v>271.3740693585943</v>
       </c>
       <c r="Q39" t="n">
-        <v>248.6174990777775</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R39" t="n">
-        <v>211.0138975679251</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="S39" t="n">
-        <v>211.0138975679251</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="T39" t="n">
-        <v>142.4850921743407</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="U39" t="n">
-        <v>142.4850921743407</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="V39" t="n">
-        <v>142.4850921743407</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="W39" t="n">
-        <v>142.4850921743407</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="X39" t="n">
-        <v>142.4850921743407</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="Y39" t="n">
         <v>142.4850921743407</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y40" t="n">
-        <v>271.3740693585943</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.0756942619012</v>
+        <v>78.83406244897611</v>
       </c>
       <c r="C41" t="n">
-        <v>141.0756942619012</v>
+        <v>78.83406244897611</v>
       </c>
       <c r="D41" t="n">
-        <v>141.0756942619012</v>
+        <v>78.83406244897611</v>
       </c>
       <c r="E41" t="n">
-        <v>141.0756942619012</v>
+        <v>78.83406244897611</v>
       </c>
       <c r="F41" t="n">
-        <v>95.25999724257764</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="G41" t="n">
-        <v>49.44430022325403</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H41" t="n">
-        <v>49.44430022325403</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I41" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J41" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K41" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="L41" t="n">
-        <v>32.76377984426642</v>
+        <v>42.60659303683693</v>
       </c>
       <c r="M41" t="n">
-        <v>77.66774449290548</v>
+        <v>66.48039016787772</v>
       </c>
       <c r="N41" t="n">
-        <v>122.5717091415445</v>
+        <v>105.9014435384091</v>
       </c>
       <c r="O41" t="n">
-        <v>167.4756737901836</v>
+        <v>145.3224969089405</v>
       </c>
       <c r="P41" t="n">
-        <v>181.4301601965215</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="Q41" t="n">
-        <v>181.4301601965215</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="R41" t="n">
-        <v>181.4301601965215</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="S41" t="n">
-        <v>181.4301601965215</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="T41" t="n">
-        <v>181.4301601965215</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="U41" t="n">
-        <v>181.4301601965215</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="V41" t="n">
-        <v>181.4301601965215</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="W41" t="n">
-        <v>181.4301601965215</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="X41" t="n">
-        <v>181.4301601965215</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.0756942619012</v>
+        <v>119.0555228821272</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.44430022325403</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="C42" t="n">
-        <v>49.44430022325403</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="D42" t="n">
-        <v>49.44430022325403</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="E42" t="n">
-        <v>49.44430022325403</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="F42" t="n">
-        <v>49.44430022325403</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="G42" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H42" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I42" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J42" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K42" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="L42" t="n">
-        <v>48.53256785256949</v>
+        <v>42.60659303683693</v>
       </c>
       <c r="M42" t="n">
-        <v>93.43653250120855</v>
+        <v>82.02764640736831</v>
       </c>
       <c r="N42" t="n">
-        <v>138.3404971498476</v>
+        <v>121.4486997778997</v>
       </c>
       <c r="O42" t="n">
-        <v>181.4301601965215</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="P42" t="n">
-        <v>181.4301601965215</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="Q42" t="n">
-        <v>181.4301601965215</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="R42" t="n">
-        <v>141.0756942619012</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="S42" t="n">
-        <v>95.25999724257764</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="T42" t="n">
-        <v>95.25999724257764</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="U42" t="n">
-        <v>95.25999724257764</v>
+        <v>123.8499209657588</v>
       </c>
       <c r="V42" t="n">
-        <v>95.25999724257764</v>
+        <v>83.6284605326077</v>
       </c>
       <c r="W42" t="n">
-        <v>95.25999724257764</v>
+        <v>43.40700009945664</v>
       </c>
       <c r="X42" t="n">
-        <v>95.25999724257764</v>
+        <v>43.40700009945664</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.44430022325403</v>
+        <v>3.185539666305565</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="C43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="D43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="E43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="F43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="G43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="L43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="M43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="N43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="O43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="P43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="R43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="S43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="T43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="U43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="V43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="W43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="X43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.628603203930429</v>
+        <v>3.185539666305565</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>90.94173540790645</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="C44" t="n">
-        <v>90.94173540790645</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="D44" t="n">
-        <v>90.94173540790645</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="E44" t="n">
-        <v>61.40752671476977</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="F44" t="n">
-        <v>31.8733180216331</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="G44" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H44" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I44" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J44" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K44" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="L44" t="n">
-        <v>16.1615461980536</v>
+        <v>27.05933679734635</v>
       </c>
       <c r="M44" t="n">
-        <v>45.10802413819685</v>
+        <v>66.48039016787772</v>
       </c>
       <c r="N44" t="n">
-        <v>74.05450207834011</v>
+        <v>105.9014435384091</v>
       </c>
       <c r="O44" t="n">
-        <v>103.0009800184834</v>
+        <v>145.3224969089405</v>
       </c>
       <c r="P44" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="Q44" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="R44" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="S44" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="T44" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="U44" t="n">
-        <v>116.9554664248212</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="V44" t="n">
-        <v>116.9554664248212</v>
+        <v>78.83406244897611</v>
       </c>
       <c r="W44" t="n">
-        <v>116.9554664248212</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="X44" t="n">
-        <v>116.9554664248212</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="Y44" t="n">
-        <v>116.9554664248212</v>
+        <v>3.185539666305565</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.339109328496424</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="C45" t="n">
-        <v>2.339109328496424</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="D45" t="n">
-        <v>2.339109328496424</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="E45" t="n">
-        <v>2.339109328496424</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="F45" t="n">
-        <v>2.339109328496424</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="G45" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H45" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I45" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J45" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K45" t="n">
-        <v>15.89562499514238</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="L45" t="n">
-        <v>30.11603260439146</v>
+        <v>41.01382320368414</v>
       </c>
       <c r="M45" t="n">
-        <v>59.06251054453472</v>
+        <v>80.43487657421551</v>
       </c>
       <c r="N45" t="n">
-        <v>88.00898848467797</v>
+        <v>119.8559299447469</v>
       </c>
       <c r="O45" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="P45" t="n">
-        <v>116.9554664248212</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.19889614400448</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="R45" t="n">
-        <v>94.19889614400448</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="S45" t="n">
-        <v>64.6646874508678</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="T45" t="n">
-        <v>64.6646874508678</v>
+        <v>159.2769833152782</v>
       </c>
       <c r="U45" t="n">
-        <v>61.40752671476977</v>
+        <v>119.0555228821272</v>
       </c>
       <c r="V45" t="n">
-        <v>61.40752671476977</v>
+        <v>78.83406244897611</v>
       </c>
       <c r="W45" t="n">
-        <v>31.8733180216331</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="X45" t="n">
-        <v>2.339109328496424</v>
+        <v>38.61260201582504</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.339109328496424</v>
+        <v>38.61260201582504</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="C46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="D46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="E46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="F46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="G46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="H46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="I46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="J46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="K46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="L46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="M46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="N46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="O46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="P46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="R46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="S46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="T46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="U46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="V46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="W46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="X46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.339109328496424</v>
+        <v>3.185539666305565</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N2" t="n">
-        <v>111.9488011414238</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>57.07593346819698</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322068</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863851</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853119</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P3" t="n">
-        <v>67.92252959633595</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8227,7 +8227,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N5" t="n">
-        <v>111.9488011414238</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>57.07593346819698</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M6" t="n">
-        <v>38.00954882322068</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N6" t="n">
-        <v>17.73005030863851</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O6" t="n">
-        <v>49.04422963853119</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P6" t="n">
-        <v>67.92252959633595</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8461,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>109.0330774045742</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N8" t="n">
-        <v>103.9814933006409</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>51.88860288067409</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M9" t="n">
-        <v>31.9561786981586</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N9" t="n">
-        <v>11.516465488731</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O9" t="n">
-        <v>43.36001345064398</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P9" t="n">
-        <v>63.3604449762052</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8695,16 +8695,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>79.27897249523153</v>
+        <v>74.15505248603699</v>
       </c>
       <c r="M11" t="n">
-        <v>38.13372987968438</v>
+        <v>48.71410910229861</v>
       </c>
       <c r="N11" t="n">
-        <v>31.46180477983035</v>
+        <v>42.04218400244451</v>
       </c>
       <c r="O11" t="n">
-        <v>35.76093267816073</v>
+        <v>61.61812106298299</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8771,10 +8771,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>53.90320578326357</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>25.45519773866897</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>8.971520805288193</v>
       </c>
       <c r="P12" t="n">
         <v>5.093443300258059</v>
@@ -8932,16 +8932,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>79.27897249523147</v>
+        <v>89.85935171784573</v>
       </c>
       <c r="M14" t="n">
-        <v>38.13372987968438</v>
+        <v>48.71410910229864</v>
       </c>
       <c r="N14" t="n">
-        <v>31.46180477983029</v>
+        <v>26.33788477063581</v>
       </c>
       <c r="O14" t="n">
-        <v>35.76093267816061</v>
+        <v>61.61812106298299</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9008,10 +9008,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>13.69345016832925</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>5.875512535620999</v>
       </c>
       <c r="P15" t="n">
         <v>5.093443300258059</v>
@@ -9169,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>85.57961628857112</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>60.61970717020256</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N17" t="n">
-        <v>53.94778207034847</v>
+        <v>70.06645551327355</v>
       </c>
       <c r="O17" t="n">
-        <v>73.52371913088695</v>
+        <v>82.0975069891436</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9245,19 +9245,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>37.36079580657292</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M18" t="n">
-        <v>4.277411164897266</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>22.48597729051821</v>
+        <v>29.79826979988189</v>
       </c>
       <c r="P18" t="n">
         <v>5.093443300258059</v>
@@ -9403,16 +9403,16 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>101.0470301984486</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>76.73838061312767</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N20" t="n">
-        <v>70.06645551327358</v>
+        <v>62.52156992860511</v>
       </c>
       <c r="O20" t="n">
         <v>89.64239257381206</v>
@@ -9488,7 +9488,7 @@
         <v>53.47946924949798</v>
       </c>
       <c r="M21" t="n">
-        <v>19.74482507477482</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>38.60465073344326</v>
       </c>
       <c r="P21" t="n">
-        <v>5.093443300258059</v>
+        <v>24.83826837503289</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9719,13 +9719,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>62.84512380399974</v>
+        <v>11.30114324318629</v>
       </c>
       <c r="M24" t="n">
-        <v>8.858857292542694</v>
+        <v>31.85163184501997</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
         <v>62.84512380399974</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>8.85885729254268</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>82.30261519440836</v>
+        <v>62.61026647861487</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10193,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>62.84512380399974</v>
+        <v>43.15277508820625</v>
       </c>
       <c r="M30" t="n">
-        <v>31.85163184501997</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>6.246092053728034</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>47.97030528794502</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>5.093443300258059</v>
+        <v>82.30261519440836</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L33" t="n">
         <v>62.84512380399974</v>
@@ -10439,10 +10439,10 @@
         <v>31.85163184501997</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>6.246092053728034</v>
       </c>
       <c r="O33" t="n">
-        <v>25.66519133333686</v>
+        <v>47.97030528794502</v>
       </c>
       <c r="P33" t="n">
         <v>5.093443300258059</v>
@@ -10594,13 +10594,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>69.19349502845932</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N35" t="n">
-        <v>70.06645551327364</v>
+        <v>62.52156992860511</v>
       </c>
       <c r="O35" t="n">
-        <v>89.64239257381212</v>
+        <v>89.64239257381206</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10667,19 +10667,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>50.73831703375463</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M36" t="n">
-        <v>22.48597729051824</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>38.60465073344329</v>
+        <v>29.79826979988189</v>
       </c>
       <c r="P36" t="n">
         <v>5.093443300258059</v>
@@ -10834,10 +10834,10 @@
         <v>76.73838061312765</v>
       </c>
       <c r="N38" t="n">
-        <v>70.06645551327355</v>
+        <v>62.52156992860529</v>
       </c>
       <c r="O38" t="n">
-        <v>82.0975069891436</v>
+        <v>89.64239257381212</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,19 +10904,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L39" t="n">
-        <v>53.47946924949798</v>
+        <v>53.47946924949801</v>
       </c>
       <c r="M39" t="n">
-        <v>22.48597729051821</v>
+        <v>22.48597729051824</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>7.312292509363679</v>
+        <v>35.8634985176999</v>
       </c>
       <c r="P39" t="n">
         <v>5.093443300258059</v>
@@ -11065,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>79.46957724290091</v>
+        <v>89.85935171784578</v>
       </c>
       <c r="M41" t="n">
-        <v>54.25240332260944</v>
+        <v>33.00980987048997</v>
       </c>
       <c r="N41" t="n">
-        <v>47.58047822275535</v>
+        <v>42.04218400244457</v>
       </c>
       <c r="O41" t="n">
-        <v>67.15641528329382</v>
+        <v>61.61812106298305</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11141,10 +11141,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20975561493427</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L42" t="n">
-        <v>30.99349195897977</v>
+        <v>25.455197738669</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>14.28604556215212</v>
+        <v>8.971520805288222</v>
       </c>
       <c r="P42" t="n">
         <v>5.093443300258059</v>
@@ -11299,19 +11299,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>64.00216333302332</v>
+        <v>74.15505248603711</v>
       </c>
       <c r="M44" t="n">
-        <v>38.13372987968438</v>
+        <v>48.71410910229861</v>
       </c>
       <c r="N44" t="n">
-        <v>31.46180477983029</v>
+        <v>42.04218400244457</v>
       </c>
       <c r="O44" t="n">
-        <v>51.03774184036877</v>
+        <v>61.61812106298305</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11378,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>53.90320578326352</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>23.84633932134295</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>10.58037922261428</v>
       </c>
       <c r="P45" t="n">
         <v>5.093443300258059</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.33726707119456</v>
+        <v>22.34713858678556</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.33726707119456</v>
+        <v>22.34713858678556</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22.29261540829243</v>
+        <v>22.33726707119455</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>38.96936286685522</v>
+        <v>33.13543774703622</v>
       </c>
       <c r="R11" t="n">
-        <v>151.6343805165085</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5861631989586</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T11" t="n">
-        <v>191.5840822088878</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7521737158166</v>
+        <v>208.932927886997</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W11" t="n">
-        <v>325.3917254792934</v>
+        <v>285.5724796504738</v>
       </c>
       <c r="X11" t="n">
-        <v>348.8168793035129</v>
+        <v>308.9976334746933</v>
       </c>
       <c r="Y11" t="n">
         <v>377.9289763951821</v>
@@ -23351,7 +23351,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7697824785144</v>
+        <v>148.2259953304988</v>
       </c>
       <c r="H12" t="n">
         <v>135.3823959320322</v>
@@ -23360,7 +23360,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>109.9304744768696</v>
+        <v>99.35009525425536</v>
       </c>
       <c r="S12" t="n">
-        <v>174.2294468976288</v>
+        <v>163.6490676750146</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8681652515365</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U12" t="n">
-        <v>223.8798302467504</v>
+        <v>209.8141781246765</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23442,22 +23442,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K13" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L13" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M13" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N13" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O13" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P13" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q13" t="n">
         <v>134.42632090912</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.5563275970632</v>
+        <v>329.4835358710389</v>
       </c>
       <c r="C14" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>279.312509814428</v>
       </c>
       <c r="E14" t="n">
-        <v>359.9585549362873</v>
+        <v>320.1393091074677</v>
       </c>
       <c r="F14" t="n">
         <v>399.146417573369</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.2082294730605</v>
+        <v>28.38898364424094</v>
       </c>
       <c r="R14" t="n">
-        <v>151.6343805165085</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5861631989586</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T14" t="n">
-        <v>188.0988093094281</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U14" t="n">
-        <v>222.998580009071</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>131.5309158723091</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H15" t="n">
-        <v>106.1435293258269</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I15" t="n">
-        <v>79.2702914866574</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J15" t="n">
-        <v>32.54011574395825</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R15" t="n">
-        <v>139.1693410830749</v>
+        <v>99.35009525425536</v>
       </c>
       <c r="S15" t="n">
-        <v>203.4683135038341</v>
+        <v>163.6490676750146</v>
       </c>
       <c r="T15" t="n">
-        <v>229.1070318577418</v>
+        <v>189.2877860289222</v>
       </c>
       <c r="U15" t="n">
         <v>249.633423953496</v>
@@ -23642,7 +23642,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y15" t="n">
-        <v>242.8962664135933</v>
+        <v>207.823474687569</v>
       </c>
     </row>
     <row r="16">
@@ -23734,7 +23734,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>273.840549401446</v>
       </c>
       <c r="D17" t="n">
         <v>319.1317556432476</v>
@@ -23743,16 +23743,16 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
-        <v>347.4215736766455</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>369.9974799159962</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>293.2419767295039</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>190.0587801065283</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
         <v>62.27902778684214</v>
@@ -23788,13 +23788,13 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7521737158166</v>
+        <v>180.908656376168</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>245.4609246613745</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>257.5482081396448</v>
       </c>
       <c r="X17" t="n">
         <v>348.8168793035129</v>
@@ -23822,19 +23822,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F18" t="n">
-        <v>173.9843481253239</v>
+        <v>106.1408307856753</v>
       </c>
       <c r="G18" t="n">
         <v>160.7697824785144</v>
       </c>
       <c r="H18" t="n">
-        <v>83.6575520353087</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I18" t="n">
-        <v>56.78431419613919</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>6.568865553980359</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>116.1391031568495</v>
+        <v>71.32582374342635</v>
       </c>
       <c r="S18" t="n">
         <v>203.4683135038341</v>
@@ -23870,13 +23870,13 @@
         <v>249.633423953496</v>
       </c>
       <c r="V18" t="n">
-        <v>249.2999251801724</v>
+        <v>212.0723596854185</v>
       </c>
       <c r="W18" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X18" t="n">
-        <v>230.033063710963</v>
+        <v>162.1895463713144</v>
       </c>
       <c r="Y18" t="n">
         <v>242.8962664135933</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>364.5563275970632</v>
+        <v>296.7128102574146</v>
       </c>
       <c r="C20" t="n">
         <v>333.5971194742085</v>
@@ -23977,16 +23977,16 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>300.2019848635249</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
-        <v>331.3029002337205</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>353.8788064730712</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H20" t="n">
-        <v>277.1233032865789</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I20" t="n">
         <v>235.6180226107624</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.2082294730605</v>
+        <v>0.3647121334119277</v>
       </c>
       <c r="R20" t="n">
         <v>180.8732471227138</v>
@@ -24028,7 +24028,7 @@
         <v>248.7521737158166</v>
       </c>
       <c r="V20" t="n">
-        <v>313.3044420010231</v>
+        <v>253.5478719282607</v>
       </c>
       <c r="W20" t="n">
         <v>325.3917254792934</v>
@@ -24037,7 +24037,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.9289763951821</v>
+        <v>310.0854590555335</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>104.2554250398636</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
         <v>187.4605452976028</v>
@@ -24062,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7697824785144</v>
+        <v>92.92626513886586</v>
       </c>
       <c r="H21" t="n">
-        <v>75.6258258592698</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I21" t="n">
         <v>108.5091580928627</v>
       </c>
       <c r="J21" t="n">
-        <v>58.29370945070387</v>
+        <v>21.06614395595001</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,16 +24092,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>139.1693410830749</v>
+        <v>71.32582374342635</v>
       </c>
       <c r="S21" t="n">
         <v>135.6247961641856</v>
       </c>
       <c r="T21" t="n">
-        <v>161.2635145180932</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U21" t="n">
         <v>249.633423953496</v>
@@ -24211,10 +24211,10 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
-        <v>319.1317556432476</v>
+        <v>241.9225837490973</v>
       </c>
       <c r="E23" t="n">
-        <v>282.749383042137</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
         <v>399.146417573369</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.2082294730605</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>180.8732471227138</v>
+        <v>105.2801218442318</v>
       </c>
       <c r="S23" t="n">
-        <v>158.2328469477717</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T23" t="n">
-        <v>140.1285040214831</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
-        <v>171.5430018216663</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>300.7198045010318</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>110.8035854868841</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
         <v>203.8424276152394</v>
@@ -24329,31 +24329,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>139.1693410830749</v>
       </c>
       <c r="S24" t="n">
-        <v>126.2591416096838</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T24" t="n">
-        <v>151.8978599635914</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U24" t="n">
-        <v>181.6275853491284</v>
+        <v>172.4242520593457</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>172.090753286022</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>206.0400848687808</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>242.8962664135933</v>
+        <v>197.4194323872343</v>
       </c>
     </row>
     <row r="25">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.3471557029128</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>256.3879475800582</v>
+        <v>267.0049366168163</v>
       </c>
       <c r="D26" t="n">
-        <v>319.1317556432476</v>
+        <v>241.9225837490973</v>
       </c>
       <c r="E26" t="n">
         <v>359.9585549362873</v>
@@ -24460,7 +24460,7 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H26" t="n">
-        <v>267.7576487320771</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I26" t="n">
         <v>235.6180226107624</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.616046615668324</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R26" t="n">
         <v>180.8732471227138</v>
@@ -24499,10 +24499,10 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7521737158166</v>
+        <v>171.5430018216663</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>236.0952701068728</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
@@ -24533,10 +24533,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>96.77517623117359</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>83.5606105843641</v>
+        <v>115.2929484521554</v>
       </c>
       <c r="H27" t="n">
         <v>135.3823959320322</v>
@@ -24566,16 +24566,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>139.1693410830749</v>
+        <v>61.9601691889246</v>
       </c>
       <c r="S27" t="n">
         <v>126.2591416096838</v>
       </c>
       <c r="T27" t="n">
-        <v>161.1011932533742</v>
+        <v>151.8978599635914</v>
       </c>
       <c r="U27" t="n">
         <v>249.633423953496</v>
@@ -24685,19 +24685,19 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>241.9225837490973</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
-        <v>282.749383042137</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>321.9372456792187</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7223238127198</v>
+        <v>344.5131519185694</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3746377688353</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I29" t="n">
         <v>235.6180226107624</v>
@@ -24730,16 +24730,16 @@
         <v>180.8732471227138</v>
       </c>
       <c r="S29" t="n">
-        <v>224.8250298051639</v>
+        <v>147.6158579110136</v>
       </c>
       <c r="T29" t="n">
         <v>217.3376759156334</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7521737158166</v>
+        <v>171.5430018216663</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>246.7122591436309</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24767,7 +24767,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
-        <v>187.4605452976028</v>
+        <v>141.9837112712438</v>
       </c>
       <c r="F30" t="n">
         <v>173.9843481253239</v>
@@ -24776,7 +24776,7 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H30" t="n">
-        <v>58.17322403788188</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I30" t="n">
         <v>108.5091580928627</v>
@@ -24818,16 +24818,16 @@
         <v>249.633423953496</v>
       </c>
       <c r="V30" t="n">
-        <v>172.090753286022</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>237.7724227365721</v>
+        <v>206.0400848687808</v>
       </c>
       <c r="X30" t="n">
         <v>152.8238918168126</v>
       </c>
       <c r="Y30" t="n">
-        <v>242.8962664135933</v>
+        <v>165.687094519443</v>
       </c>
     </row>
     <row r="31">
@@ -24922,16 +24922,16 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D32" t="n">
-        <v>319.1317556432476</v>
+        <v>241.9225837490973</v>
       </c>
       <c r="E32" t="n">
         <v>282.749383042137</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>321.9372456792187</v>
       </c>
       <c r="G32" t="n">
-        <v>344.5131519185694</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H32" t="n">
         <v>344.9668206262274</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.2082294730605</v>
+        <v>1.616046615668324</v>
       </c>
       <c r="R32" t="n">
-        <v>114.2810642653216</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S32" t="n">
-        <v>147.6158579110136</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T32" t="n">
         <v>217.3376759156334</v>
@@ -25004,7 +25004,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
-        <v>110.2513734034525</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F33" t="n">
         <v>173.9843481253239</v>
@@ -25016,10 +25016,10 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I33" t="n">
-        <v>31.29998619871238</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,22 +25049,22 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T33" t="n">
-        <v>219.394902704078</v>
+        <v>161.1011932533742</v>
       </c>
       <c r="U33" t="n">
-        <v>249.633423953496</v>
+        <v>172.4242520593457</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>172.090753286022</v>
       </c>
       <c r="W33" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
-        <v>152.8238918168126</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>165.687094519443</v>
       </c>
     </row>
     <row r="34">
@@ -25159,7 +25159,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1317556432476</v>
+        <v>259.3751855704852</v>
       </c>
       <c r="E35" t="n">
         <v>359.9585549362873</v>
@@ -25171,13 +25171,13 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H35" t="n">
-        <v>277.1233032865789</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I35" t="n">
         <v>235.6180226107624</v>
       </c>
       <c r="J35" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.451659400298084</v>
+        <v>0.3647121334119277</v>
       </c>
       <c r="R35" t="n">
         <v>180.8732471227138</v>
       </c>
       <c r="S35" t="n">
-        <v>224.8250298051639</v>
+        <v>156.9815124655154</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3376759156334</v>
+        <v>149.4941585759848</v>
       </c>
       <c r="U35" t="n">
         <v>248.7521737158166</v>
@@ -25216,13 +25216,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>257.5482081396448</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>310.0854590555335</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120.1692400413859</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
@@ -25244,7 +25244,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>106.1408307856753</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
         <v>160.7697824785144</v>
@@ -25256,7 +25256,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J36" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R36" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S36" t="n">
         <v>203.4683135038341</v>
@@ -25289,19 +25289,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U36" t="n">
-        <v>249.633423953496</v>
+        <v>189.8768538807336</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>181.4564078405238</v>
       </c>
       <c r="W36" t="n">
-        <v>223.4926866901687</v>
+        <v>215.4057394232825</v>
       </c>
       <c r="X36" t="n">
-        <v>162.1895463713144</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>242.8962664135933</v>
+        <v>175.0527490739448</v>
       </c>
     </row>
     <row r="37">
@@ -25338,22 +25338,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K37" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L37" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M37" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N37" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O37" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P37" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q37" t="n">
         <v>134.42632090912</v>
@@ -25393,7 +25393,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>273.840549401446</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
@@ -25405,16 +25405,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7223238127198</v>
+        <v>361.9657537399573</v>
       </c>
       <c r="H38" t="n">
-        <v>277.1233032865789</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I38" t="n">
         <v>235.6180226107624</v>
       </c>
       <c r="J38" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.2082294730605</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R38" t="n">
         <v>180.8732471227138</v>
@@ -25450,13 +25450,13 @@
         <v>180.908656376168</v>
       </c>
       <c r="V38" t="n">
-        <v>313.3044420010231</v>
+        <v>245.4609246613745</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>257.5482081396448</v>
       </c>
       <c r="X38" t="n">
-        <v>280.9733619638644</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>120.1692400413859</v>
       </c>
       <c r="C39" t="n">
-        <v>203.8424276152394</v>
+        <v>135.9989102755908</v>
       </c>
       <c r="D39" t="n">
-        <v>104.2554250398636</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
         <v>187.4605452976028</v>
@@ -25484,7 +25484,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>92.92626513886586</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H39" t="n">
         <v>135.3823959320322</v>
@@ -25493,7 +25493,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J39" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,16 +25514,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R39" t="n">
-        <v>101.9417755883211</v>
+        <v>71.32582374342638</v>
       </c>
       <c r="S39" t="n">
         <v>203.4683135038341</v>
       </c>
       <c r="T39" t="n">
-        <v>161.2635145180932</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U39" t="n">
         <v>249.633423953496</v>
@@ -25538,7 +25538,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>183.1396963408309</v>
       </c>
     </row>
     <row r="40">
@@ -25575,22 +25575,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K40" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L40" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M40" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N40" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O40" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P40" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q40" t="n">
         <v>134.42632090912</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.5563275970632</v>
+        <v>324.7370817682436</v>
       </c>
       <c r="C41" t="n">
         <v>333.5971194742085</v>
@@ -25639,19 +25639,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>353.7888775242387</v>
+        <v>359.3271717445494</v>
       </c>
       <c r="G41" t="n">
-        <v>376.3647837635894</v>
+        <v>386.6495320866955</v>
       </c>
       <c r="H41" t="n">
         <v>344.9668206262274</v>
       </c>
       <c r="I41" t="n">
-        <v>190.260482561632</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J41" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.2082294730605</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R41" t="n">
         <v>180.8732471227138</v>
@@ -25684,7 +25684,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7521737158166</v>
+        <v>208.932927886997</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>337.9780551199081</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25721,7 +25721,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>115.4122424293841</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H42" t="n">
         <v>135.3823959320322</v>
@@ -25730,7 +25730,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J42" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.52900457800858</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R42" t="n">
-        <v>99.21841980780093</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S42" t="n">
-        <v>158.1107734547038</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T42" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U42" t="n">
-        <v>249.633423953496</v>
+        <v>214.5606322274717</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>209.4806793513528</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>243.4300109341116</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>197.538726364463</v>
+        <v>203.0770205847738</v>
       </c>
     </row>
     <row r="43">
@@ -25812,22 +25812,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K43" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L43" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M43" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N43" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O43" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P43" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q43" t="n">
         <v>134.42632090912</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>338.8027338903175</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
@@ -25873,13 +25873,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
-        <v>330.719688330082</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>369.9075509671637</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>392.4834572065145</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H44" t="n">
         <v>344.9668206262274</v>
@@ -25888,7 +25888,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J44" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.2082294730605</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R44" t="n">
         <v>180.8732471227138</v>
@@ -25921,16 +25921,16 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7521737158166</v>
+        <v>208.932927886997</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>273.4851961722036</v>
       </c>
       <c r="W44" t="n">
-        <v>325.3917254792934</v>
+        <v>285.5724796504738</v>
       </c>
       <c r="X44" t="n">
-        <v>348.8168793035129</v>
+        <v>313.7440875774886</v>
       </c>
       <c r="Y44" t="n">
         <v>377.9289763951821</v>
@@ -25958,7 +25958,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7697824785144</v>
+        <v>125.6969907524902</v>
       </c>
       <c r="H45" t="n">
         <v>135.3823959320322</v>
@@ -25967,7 +25967,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J45" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,28 +25988,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R45" t="n">
-        <v>139.1693410830749</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S45" t="n">
-        <v>174.2294468976288</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T45" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U45" t="n">
-        <v>246.408834824759</v>
+        <v>209.8141781246765</v>
       </c>
       <c r="V45" t="n">
-        <v>249.2999251801724</v>
+        <v>209.4806793513528</v>
       </c>
       <c r="W45" t="n">
-        <v>254.0103901567258</v>
+        <v>243.4300109341116</v>
       </c>
       <c r="X45" t="n">
-        <v>200.7941971047577</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
         <v>242.8962664135933</v>
@@ -26049,22 +26049,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K46" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L46" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M46" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N46" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O46" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P46" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q46" t="n">
         <v>134.42632090912</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1135610.756778145</v>
+        <v>1135699.803112144</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1135610.756778145</v>
+        <v>1135699.803112144</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1135067.552667312</v>
+        <v>1135610.756778145</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>401188.955679944</v>
+        <v>408023.0722013579</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>401188.9556799441</v>
+        <v>408023.072201358</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415773.9229143584</v>
+        <v>426339.1264606423</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>426339.1264606424</v>
+        <v>426339.1264606423</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432409.2684875123</v>
+        <v>432409.2684875122</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>426339.1264606423</v>
+        <v>426339.1264606424</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>426339.1264606424</v>
+        <v>426339.1264606423</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>411600.3870815827</v>
+        <v>408023.072201358</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>401188.9556799441</v>
+        <v>408023.0722013579</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546840.7587480417</v>
+        <v>546840.3069287733</v>
       </c>
       <c r="C2" t="n">
-        <v>546840.7587480418</v>
+        <v>546840.3069287733</v>
       </c>
       <c r="D2" t="n">
-        <v>546842.802454653</v>
+        <v>546840.7587480415</v>
       </c>
       <c r="E2" t="n">
-        <v>190767.9597029491</v>
+        <v>193648.3422514006</v>
       </c>
       <c r="F2" t="n">
-        <v>190767.9597029491</v>
+        <v>193648.3422514007</v>
       </c>
       <c r="G2" t="n">
-        <v>196889.4998868825</v>
+        <v>201277.6172418783</v>
       </c>
       <c r="H2" t="n">
-        <v>201277.6172418782</v>
+        <v>201277.6172418783</v>
       </c>
       <c r="I2" t="n">
         <v>203762.6024068262</v>
@@ -26346,16 +26346,16 @@
         <v>203762.6024068262</v>
       </c>
       <c r="M2" t="n">
+        <v>201277.6172418783</v>
+      </c>
+      <c r="N2" t="n">
         <v>201277.6172418782</v>
       </c>
-      <c r="N2" t="n">
-        <v>201277.6172418783</v>
-      </c>
       <c r="O2" t="n">
-        <v>195156.0770579448</v>
+        <v>193648.3422514006</v>
       </c>
       <c r="P2" t="n">
-        <v>190767.9597029491</v>
+        <v>193648.3422514007</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300331.6078316385</v>
+        <v>297965.4180442812</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9512.276921623736</v>
+        <v>2102.958408147063</v>
       </c>
       <c r="E3" t="n">
-        <v>122700.8595295626</v>
+        <v>134783.4063798176</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6163.069085671684</v>
+        <v>7681.03245704557</v>
       </c>
       <c r="H3" t="n">
-        <v>4348.963162962167</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>2490.524224787662</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4952.483936132731</v>
+        <v>7589.156759925095</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>406945.6683077902</v>
+      </c>
+      <c r="C4" t="n">
+        <v>406945.6683077902</v>
+      </c>
+      <c r="D4" t="n">
         <v>406228.0549947771</v>
       </c>
-      <c r="C4" t="n">
-        <v>406228.0549947771</v>
-      </c>
-      <c r="D4" t="n">
-        <v>403197.8795171243</v>
-      </c>
       <c r="E4" t="n">
-        <v>11379.9638164747</v>
+        <v>12335.74782404794</v>
       </c>
       <c r="F4" t="n">
-        <v>11379.9638164747</v>
+        <v>12335.74782404794</v>
       </c>
       <c r="G4" t="n">
-        <v>13471.99023740497</v>
+        <v>15081.85105107616</v>
       </c>
       <c r="H4" t="n">
         <v>15081.85105107616</v>
@@ -26441,7 +26441,7 @@
         <v>16080.59410721632</v>
       </c>
       <c r="J4" t="n">
-        <v>16080.59410721631</v>
+        <v>16080.59410721632</v>
       </c>
       <c r="K4" t="n">
         <v>16080.59410721632</v>
@@ -26456,10 +26456,10 @@
         <v>15081.85105107616</v>
       </c>
       <c r="O4" t="n">
-        <v>12836.05248550038</v>
+        <v>12335.74782404795</v>
       </c>
       <c r="P4" t="n">
-        <v>11379.9638164747</v>
+        <v>12335.74782404795</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>40368.52827033812</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40368.52827033812</v>
+      </c>
+      <c r="D5" t="n">
         <v>40422.05903150925</v>
       </c>
-      <c r="C5" t="n">
-        <v>40422.05903150925</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40664.19383651173</v>
-      </c>
       <c r="E5" t="n">
-        <v>11906.86567606057</v>
+        <v>12550.15273279552</v>
       </c>
       <c r="F5" t="n">
-        <v>11906.86567606057</v>
+        <v>12550.15273279552</v>
       </c>
       <c r="G5" t="n">
-        <v>13274.01309532408</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="H5" t="n">
         <v>14254.02844065392</v>
@@ -26508,10 +26508,10 @@
         <v>14254.02844065392</v>
       </c>
       <c r="O5" t="n">
-        <v>12886.88102139042</v>
+        <v>12550.15273279552</v>
       </c>
       <c r="P5" t="n">
-        <v>11906.86567606057</v>
+        <v>12550.15273279552</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200140.9631098832</v>
+        <v>-198483.7784994239</v>
       </c>
       <c r="C6" t="n">
-        <v>100190.6447217554</v>
+        <v>99481.63954485729</v>
       </c>
       <c r="D6" t="n">
-        <v>93468.45217939318</v>
+        <v>98043.23515213632</v>
       </c>
       <c r="E6" t="n">
-        <v>44780.27068085123</v>
+        <v>18578.39213167481</v>
       </c>
       <c r="F6" t="n">
-        <v>167481.1302104138</v>
+        <v>153361.7985114924</v>
       </c>
       <c r="G6" t="n">
-        <v>163980.4274684817</v>
+        <v>149191.7697183195</v>
       </c>
       <c r="H6" t="n">
-        <v>167592.774587186</v>
+        <v>156872.8021753651</v>
       </c>
       <c r="I6" t="n">
-        <v>170368.0238372546</v>
+        <v>155407.1310957301</v>
       </c>
       <c r="J6" t="n">
-        <v>172858.5480620422</v>
+        <v>157897.6553205177</v>
       </c>
       <c r="K6" t="n">
-        <v>172858.5480620423</v>
+        <v>157897.6553205177</v>
       </c>
       <c r="L6" t="n">
-        <v>172858.5480620423</v>
+        <v>157897.6553205177</v>
       </c>
       <c r="M6" t="n">
-        <v>166989.2538140154</v>
+        <v>149283.64541544</v>
       </c>
       <c r="N6" t="n">
-        <v>171941.7377501483</v>
+        <v>156872.802175365</v>
       </c>
       <c r="O6" t="n">
-        <v>169433.1435510541</v>
+        <v>153361.7985114924</v>
       </c>
       <c r="P6" t="n">
-        <v>167481.1302104138</v>
+        <v>153361.7985114924</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>309.2168931347763</v>
+      </c>
+      <c r="C3" t="n">
+        <v>309.2168931347763</v>
+      </c>
+      <c r="D3" t="n">
         <v>311.6724326380389</v>
       </c>
-      <c r="C3" t="n">
-        <v>311.6724326380389</v>
-      </c>
-      <c r="D3" t="n">
-        <v>322.7795337849417</v>
-      </c>
       <c r="E3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="F3" t="n">
         <v>464.6395681836371</v>
@@ -26770,16 +26770,16 @@
         <v>464.6395681836371</v>
       </c>
       <c r="M3" t="n">
+        <v>464.6395681836371</v>
+      </c>
+      <c r="N3" t="n">
         <v>464.639568183637</v>
       </c>
-      <c r="N3" t="n">
-        <v>464.6395681836371</v>
-      </c>
       <c r="O3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="P3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="F4" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="G4" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H4" t="n">
         <v>67.84351733964857</v>
@@ -26828,10 +26828,10 @@
         <v>67.84351733964857</v>
       </c>
       <c r="O4" t="n">
-        <v>45.35754004913036</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="P4" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.6724326380389</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.10710114690294</v>
+        <v>2.455539503262514</v>
       </c>
       <c r="E3" t="n">
-        <v>141.8600343986953</v>
+        <v>152.9671355455983</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,16 +27020,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>22.48597729051821</v>
+        <v>28.02427151082901</v>
       </c>
       <c r="H4" t="n">
-        <v>16.11867344292506</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>9.365654554501759</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>19.87321205170355</v>
+        <v>30.45359127431781</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>22.48597729051821</v>
+        <v>28.02427151082901</v>
       </c>
       <c r="P4" t="n">
-        <v>16.11867344292506</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27396,46 +27396,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>351.2646082720821</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I2" t="n">
-        <v>259.3256225831108</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J2" t="n">
-        <v>114.4715681708149</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K2" t="n">
-        <v>78.22308851520961</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766588</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.40184904719004</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P2" t="n">
-        <v>74.33416843326191</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.6151832766775</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R2" t="n">
-        <v>219.5016765828794</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S2" t="n">
-        <v>238.8380493076577</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T2" t="n">
-        <v>220.0295900296067</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8013691764946</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -27472,19 +27472,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0988061285559</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H3" t="n">
-        <v>138.5600717100643</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I3" t="n">
-        <v>119.8373846403433</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J3" t="n">
-        <v>89.37922894870135</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K3" t="n">
-        <v>24.57889804244016</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27502,19 +27502,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.52858488856606</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R3" t="n">
-        <v>159.5976691093343</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S3" t="n">
-        <v>209.5797834947361</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T3" t="n">
-        <v>230.4332280611984</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -27551,49 +27551,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.30467002737</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H4" t="n">
-        <v>168.2025540396188</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I4" t="n">
-        <v>169.8493025891331</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J4" t="n">
-        <v>137.2497006419296</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505842</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L4" t="n">
-        <v>71.46654840866277</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M4" t="n">
-        <v>68.66533643318368</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516952</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O4" t="n">
-        <v>80.66114959698193</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028562</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q4" t="n">
-        <v>157.5243583765053</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R4" t="n">
-        <v>224.2138859994434</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S4" t="n">
-        <v>244.9169435351811</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T4" t="n">
-        <v>218.3869624620415</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2234139120339</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -27633,46 +27633,46 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>351.2646082720821</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I5" t="n">
-        <v>259.3256225831108</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J5" t="n">
-        <v>114.4715681708149</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K5" t="n">
-        <v>78.22308851520961</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L5" t="n">
-        <v>38.49084836766588</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.40184904719004</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P5" t="n">
-        <v>74.33416843326191</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q5" t="n">
-        <v>134.6151832766775</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R5" t="n">
-        <v>219.5016765828794</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S5" t="n">
-        <v>238.8380493076577</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T5" t="n">
-        <v>220.0295900296067</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U5" t="n">
-        <v>248.8013691764946</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -27709,19 +27709,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0988061285559</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H6" t="n">
-        <v>138.5600717100643</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I6" t="n">
-        <v>119.8373846403433</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J6" t="n">
-        <v>89.37922894870135</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K6" t="n">
-        <v>24.57889804244016</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27739,19 +27739,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.52858488856606</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R6" t="n">
-        <v>159.5976691093343</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S6" t="n">
-        <v>209.5797834947361</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T6" t="n">
-        <v>230.4332280611984</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -27788,49 +27788,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.30467002737</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H7" t="n">
-        <v>168.2025540396188</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I7" t="n">
-        <v>169.8493025891331</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J7" t="n">
-        <v>137.2497006419296</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K7" t="n">
-        <v>95.63058149505842</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L7" t="n">
-        <v>71.46654840866277</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M7" t="n">
-        <v>68.66533643318368</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N7" t="n">
-        <v>56.06123914516952</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O7" t="n">
-        <v>80.66114959698193</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P7" t="n">
-        <v>98.35025284028562</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q7" t="n">
-        <v>157.5243583765053</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R7" t="n">
-        <v>224.2138859994434</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S7" t="n">
-        <v>244.9169435351811</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T7" t="n">
-        <v>218.3869624620415</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2234139120339</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -27870,19 +27870,19 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>350.8073194293858</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I8" t="n">
-        <v>257.6041893490767</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J8" t="n">
-        <v>110.6818140965759</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K8" t="n">
-        <v>72.54322955032379</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L8" t="n">
-        <v>31.44448107423921</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27891,25 +27891,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>18.8785461793901</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P8" t="n">
-        <v>67.91320349335811</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q8" t="n">
-        <v>129.7933060144559</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R8" t="n">
-        <v>216.6968265631039</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S8" t="n">
-        <v>237.8205495392756</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T8" t="n">
-        <v>219.8341273752527</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7977970434624</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -27946,19 +27946,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0749153826928</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H9" t="n">
-        <v>138.3293374013334</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I9" t="n">
-        <v>119.014830451634</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J9" t="n">
-        <v>87.12207738449912</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K9" t="n">
-        <v>20.72106650540691</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27976,19 +27976,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>61.47895213592962</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R9" t="n">
-        <v>158.1143471863573</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S9" t="n">
-        <v>209.1360233687254</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T9" t="n">
-        <v>230.3369315899342</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6534984866657</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -28025,49 +28025,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.2846408285805</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H10" t="n">
-        <v>168.0244762540176</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I10" t="n">
-        <v>169.2469699564454</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J10" t="n">
-        <v>135.8336362875122</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K10" t="n">
-        <v>93.30355276296957</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L10" t="n">
-        <v>68.48875279954065</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M10" t="n">
-        <v>65.52566848111734</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N10" t="n">
-        <v>52.9962254795004</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O10" t="n">
-        <v>77.8301133898992</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P10" t="n">
-        <v>95.92781228850863</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q10" t="n">
-        <v>155.847186103323</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R10" t="n">
-        <v>223.3133003884174</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S10" t="n">
-        <v>244.5678892253678</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T10" t="n">
-        <v>218.3013831581227</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2223214102817</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.252954503067492</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H2" t="n">
-        <v>12.83182030453995</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I2" t="n">
-        <v>48.30452847950953</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J2" t="n">
-        <v>106.3429472547246</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K2" t="n">
-        <v>159.3805113695716</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L2" t="n">
-        <v>197.7256177428234</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M2" t="n">
-        <v>220.0078473867499</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N2" t="n">
-        <v>223.5678043685904</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O2" t="n">
-        <v>211.108738028713</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P2" t="n">
-        <v>180.1764237342343</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.3049905931297</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R2" t="n">
-        <v>78.70590330331341</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S2" t="n">
-        <v>28.5517007386505</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177948</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160015</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I3" t="n">
-        <v>23.08140185102458</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J3" t="n">
-        <v>63.33713086279241</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K3" t="n">
-        <v>108.2532448342894</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L3" t="n">
-        <v>145.559846959869</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877311</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N3" t="n">
-        <v>174.3572036132365</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O3" t="n">
-        <v>159.5027778614688</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P3" t="n">
-        <v>128.015041247122</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.57466490091966</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R3" t="n">
-        <v>41.62297128701962</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S3" t="n">
-        <v>12.45219577568013</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T3" t="n">
-        <v>2.70214118485243</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H4" t="n">
-        <v>4.996977690491839</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I4" t="n">
-        <v>16.9018427404366</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927914</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973992</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L4" t="n">
-        <v>83.55886825184406</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M4" t="n">
-        <v>88.10111075373283</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567394</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O4" t="n">
-        <v>79.44070463370868</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994207</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.06253732834386</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R4" t="n">
-        <v>25.27101396438917</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460985</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T4" t="n">
-        <v>2.40141054655538</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.252954503067492</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H5" t="n">
-        <v>12.83182030453995</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I5" t="n">
-        <v>48.30452847950953</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J5" t="n">
-        <v>106.3429472547246</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K5" t="n">
-        <v>159.3805113695716</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L5" t="n">
-        <v>197.7256177428234</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M5" t="n">
-        <v>220.0078473867499</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N5" t="n">
-        <v>223.5678043685904</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O5" t="n">
-        <v>211.108738028713</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P5" t="n">
-        <v>180.1764237342343</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q5" t="n">
-        <v>135.3049905931297</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R5" t="n">
-        <v>78.70590330331341</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S5" t="n">
-        <v>28.5517007386505</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T5" t="n">
-        <v>5.484808337177948</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H6" t="n">
-        <v>6.474553742160015</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I6" t="n">
-        <v>23.08140185102458</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J6" t="n">
-        <v>63.33713086279241</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K6" t="n">
-        <v>108.2532448342894</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L6" t="n">
-        <v>145.559846959869</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M6" t="n">
-        <v>169.8614757877311</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N6" t="n">
-        <v>174.3572036132365</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O6" t="n">
-        <v>159.5027778614688</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P6" t="n">
-        <v>128.015041247122</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q6" t="n">
-        <v>85.57466490091966</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R6" t="n">
-        <v>41.62297128701962</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S6" t="n">
-        <v>12.45219577568013</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T6" t="n">
-        <v>2.70214118485243</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H7" t="n">
-        <v>4.996977690491839</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I7" t="n">
-        <v>16.9018427404366</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J7" t="n">
-        <v>39.73568046927914</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K7" t="n">
-        <v>65.29792932973992</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L7" t="n">
-        <v>83.55886825184406</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M7" t="n">
-        <v>88.10111075373283</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N7" t="n">
-        <v>86.00626325567394</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O7" t="n">
-        <v>79.44070463370868</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97524661994207</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.06253732834386</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R7" t="n">
-        <v>25.27101396438917</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S7" t="n">
-        <v>9.794689399460985</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T7" t="n">
-        <v>2.40141054655538</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.297606165969614</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H8" t="n">
-        <v>13.28910914723631</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I8" t="n">
-        <v>50.02596171354359</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J8" t="n">
-        <v>110.1327013289636</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K8" t="n">
-        <v>165.0603703344574</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L8" t="n">
-        <v>204.77198503625</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M8" t="n">
-        <v>227.8482886903122</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N8" t="n">
-        <v>231.5351122093734</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O8" t="n">
-        <v>218.632040896513</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P8" t="n">
-        <v>186.5973886741381</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.1268678553513</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R8" t="n">
-        <v>81.51075332308885</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S8" t="n">
-        <v>29.56920050703261</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T8" t="n">
-        <v>5.680270991531988</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1038084932775691</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6942805066317616</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H9" t="n">
-        <v>6.705288050890961</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I9" t="n">
-        <v>23.9039560397339</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J9" t="n">
-        <v>65.59428242699464</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K9" t="n">
-        <v>112.1110763713227</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L9" t="n">
-        <v>150.7471775473919</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M9" t="n">
-        <v>175.9148459127932</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N9" t="n">
-        <v>180.570788433144</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O9" t="n">
-        <v>165.186994049356</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P9" t="n">
-        <v>132.5771258672528</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.6242976535561</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R9" t="n">
-        <v>43.10629320999658</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S9" t="n">
-        <v>12.89595590169082</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T9" t="n">
-        <v>2.798437656116616</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04567634912051064</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5820614543662883</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H10" t="n">
-        <v>5.175055476093004</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I10" t="n">
-        <v>17.50417537312439</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J10" t="n">
-        <v>41.15174482369658</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K10" t="n">
-        <v>67.62495806182876</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L10" t="n">
-        <v>86.53666386096619</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M10" t="n">
-        <v>91.24077870579917</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N10" t="n">
-        <v>89.07127692134307</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O10" t="n">
-        <v>82.27174084079141</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P10" t="n">
-        <v>70.39768717171906</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.7397096015262</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R10" t="n">
-        <v>26.1715995754151</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S10" t="n">
-        <v>10.14374370927431</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T10" t="n">
-        <v>2.48698985047414</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03174880660179758</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H11" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I11" t="n">
         <v>72.01212845185798</v>
@@ -31767,22 +31767,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L11" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M11" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N11" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O11" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P11" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R11" t="n">
         <v>117.334332763479</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H12" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I12" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J12" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K12" t="n">
         <v>161.3833488850657</v>
@@ -31849,10 +31849,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M12" t="n">
-        <v>237.1098912171571</v>
+        <v>247.6902704397714</v>
       </c>
       <c r="N12" t="n">
-        <v>221.3261205280803</v>
+        <v>231.9064997506945</v>
       </c>
       <c r="O12" t="n">
         <v>237.7858741062053</v>
@@ -31864,16 +31864,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R12" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S12" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T12" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,16 +31913,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H13" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I13" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J13" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K13" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L13" t="n">
         <v>124.569106525823</v>
@@ -31940,10 +31940,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R13" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S13" t="n">
         <v>14.60186970832839</v>
@@ -31952,7 +31952,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32086,10 +32086,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M15" t="n">
-        <v>237.1098912171571</v>
+        <v>247.6902704397714</v>
       </c>
       <c r="N15" t="n">
-        <v>221.3261205280803</v>
+        <v>231.9064997506945</v>
       </c>
       <c r="O15" t="n">
         <v>237.7858741062053</v>
@@ -32326,7 +32326,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N18" t="n">
-        <v>243.8120978185985</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O18" t="n">
         <v>237.7858741062053</v>
@@ -33651,7 +33651,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H35" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I35" t="n">
         <v>72.01212845185798</v>
@@ -33663,22 +33663,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L35" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M35" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N35" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O35" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P35" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R35" t="n">
         <v>117.334332763479</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H36" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I36" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J36" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K36" t="n">
         <v>161.3833488850657</v>
@@ -33760,16 +33760,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R36" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S36" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T36" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,16 +33809,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H37" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I37" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J37" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K37" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L37" t="n">
         <v>124.569106525823</v>
@@ -33836,10 +33836,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R37" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S37" t="n">
         <v>14.60186970832839</v>
@@ -33848,7 +33848,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H38" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I38" t="n">
         <v>72.01212845185798</v>
@@ -33900,22 +33900,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L38" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M38" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N38" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O38" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P38" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R38" t="n">
         <v>117.334332763479</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H39" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I39" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J39" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K39" t="n">
         <v>161.3833488850657</v>
@@ -33997,16 +33997,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R39" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S39" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T39" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,16 +34046,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H40" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I40" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J40" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K40" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L40" t="n">
         <v>124.569106525823</v>
@@ -34073,10 +34073,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R40" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S40" t="n">
         <v>14.60186970832839</v>
@@ -34085,7 +34085,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H41" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I41" t="n">
         <v>72.01212845185798</v>
@@ -34137,22 +34137,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L41" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M41" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N41" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O41" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P41" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R41" t="n">
         <v>117.334332763479</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H42" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I42" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J42" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K42" t="n">
         <v>161.3833488850657</v>
@@ -34219,10 +34219,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M42" t="n">
-        <v>253.2285646600822</v>
+        <v>247.6902704397714</v>
       </c>
       <c r="N42" t="n">
-        <v>237.4447939710053</v>
+        <v>231.9064997506945</v>
       </c>
       <c r="O42" t="n">
         <v>237.7858741062053</v>
@@ -34234,16 +34234,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R42" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S42" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T42" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,16 +34283,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H43" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I43" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J43" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K43" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L43" t="n">
         <v>124.569106525823</v>
@@ -34310,10 +34310,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R43" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S43" t="n">
         <v>14.60186970832839</v>
@@ -34322,7 +34322,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H44" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I44" t="n">
         <v>72.01212845185798</v>
@@ -34374,22 +34374,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L44" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M44" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N44" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O44" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P44" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R44" t="n">
         <v>117.334332763479</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H45" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I45" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J45" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K45" t="n">
         <v>161.3833488850657</v>
@@ -34456,10 +34456,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M45" t="n">
-        <v>237.1098912171571</v>
+        <v>247.6902704397714</v>
       </c>
       <c r="N45" t="n">
-        <v>221.3261205280803</v>
+        <v>231.9064997506945</v>
       </c>
       <c r="O45" t="n">
         <v>237.7858741062053</v>
@@ -34471,16 +34471,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R45" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S45" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T45" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,16 +34520,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H46" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I46" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J46" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K46" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L46" t="n">
         <v>124.569106525823</v>
@@ -34547,10 +34547,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R46" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S46" t="n">
         <v>14.60186970832839</v>
@@ -34559,7 +34559,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>29.23886660620531</v>
+        <v>24.11494659701083</v>
       </c>
       <c r="M11" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="N11" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="O11" t="n">
-        <v>13.96205744399721</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="P11" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>13.69345016832928</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14.36404809015056</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="M12" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="N12" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="O12" t="n">
-        <v>29.23886660620531</v>
+        <v>38.2103874114935</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="M14" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="N14" t="n">
-        <v>29.23886660620531</v>
+        <v>24.11494659701082</v>
       </c>
       <c r="O14" t="n">
-        <v>13.96205744399715</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="P14" t="n">
         <v>14.09544081448269</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L15" t="n">
-        <v>28.05749825847984</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M15" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="N15" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="O15" t="n">
-        <v>29.23886660620531</v>
+        <v>35.1143791418263</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>35.53951039954495</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M17" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N17" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O17" t="n">
-        <v>51.72484389672351</v>
+        <v>60.29863175498013</v>
       </c>
       <c r="P17" t="n">
         <v>14.09544081448269</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L18" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M18" t="n">
-        <v>49.63495121402763</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N18" t="n">
-        <v>51.72484389672351</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O18" t="n">
-        <v>51.72484389672351</v>
+        <v>59.0371364060872</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>51.00692430942247</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M20" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="N20" t="n">
-        <v>67.84351733964857</v>
+        <v>60.29863175498013</v>
       </c>
       <c r="O20" t="n">
         <v>67.84351733964857</v>
@@ -36208,7 +36208,7 @@
         <v>67.84351733964857</v>
       </c>
       <c r="M21" t="n">
-        <v>65.10236512390519</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N21" t="n">
         <v>67.84351733964857</v>
@@ -36217,7 +36217,7 @@
         <v>67.84351733964857</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>19.74482507477483</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L24" t="n">
+        <v>25.66519133333687</v>
+      </c>
+      <c r="M24" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="M24" t="n">
-        <v>54.21639734167306</v>
       </c>
       <c r="N24" t="n">
         <v>67.84351733964857</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L27" t="n">
         <v>77.20917189415033</v>
@@ -36688,10 +36688,10 @@
         <v>67.84351733964857</v>
       </c>
       <c r="O27" t="n">
-        <v>38.09772389874799</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P27" t="n">
-        <v>77.20917189415033</v>
+        <v>57.51682317835681</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L30" t="n">
+        <v>57.51682317835684</v>
+      </c>
+      <c r="M30" t="n">
+        <v>45.35754004913036</v>
+      </c>
+      <c r="N30" t="n">
+        <v>67.84351733964857</v>
+      </c>
+      <c r="O30" t="n">
+        <v>29.23886660620531</v>
+      </c>
+      <c r="P30" t="n">
         <v>77.20917189415033</v>
-      </c>
-      <c r="M30" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="N30" t="n">
-        <v>74.08960939337661</v>
-      </c>
-      <c r="O30" t="n">
-        <v>77.20917189415033</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>77.20917189415033</v>
@@ -37159,10 +37159,10 @@
         <v>77.20917189415033</v>
       </c>
       <c r="N33" t="n">
-        <v>67.84351733964857</v>
+        <v>74.08960939337661</v>
       </c>
       <c r="O33" t="n">
-        <v>54.90405793954217</v>
+        <v>77.20917189415033</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>58.55180989409087</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M35" t="n">
-        <v>60.29863175498024</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N35" t="n">
-        <v>67.84351733964857</v>
+        <v>60.29863175498013</v>
       </c>
       <c r="O35" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="P35" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L36" t="n">
-        <v>65.10236512390519</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M36" t="n">
-        <v>67.84351733964857</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N36" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O36" t="n">
-        <v>67.84351733964857</v>
+        <v>59.0371364060872</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>58.55180989409092</v>
+        <v>58.55180989409087</v>
       </c>
       <c r="M38" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="N38" t="n">
+        <v>60.29863175498025</v>
+      </c>
+      <c r="O38" t="n">
         <v>67.84351733964857</v>
       </c>
-      <c r="O38" t="n">
-        <v>60.29863175498013</v>
-      </c>
       <c r="P38" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>67.84351733964857</v>
@@ -37636,7 +37636,7 @@
         <v>67.84351733964857</v>
       </c>
       <c r="O39" t="n">
-        <v>36.55115911556899</v>
+        <v>65.10236512390517</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>29.42947135387474</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="M41" t="n">
-        <v>45.35754004913036</v>
+        <v>24.11494659701089</v>
       </c>
       <c r="N41" t="n">
-        <v>45.35754004913036</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="O41" t="n">
-        <v>45.35754004913036</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="P41" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>45.35754004913036</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="M42" t="n">
-        <v>45.35754004913036</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="N42" t="n">
-        <v>45.35754004913036</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="O42" t="n">
-        <v>43.52491216835742</v>
+        <v>38.2103874114935</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>13.96205744399715</v>
+        <v>24.11494659701089</v>
       </c>
       <c r="M44" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="N44" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="O44" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="P44" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>13.69345016832925</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>14.36404809015059</v>
+        <v>38.21038741149351</v>
       </c>
       <c r="M45" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="N45" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="O45" t="n">
-        <v>29.23886660620531</v>
+        <v>39.81924582881956</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
